--- a/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
@@ -511,16 +511,16 @@
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3389090971168158</v>
+        <v>111.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4292425772597723</v>
+        <v>30.815</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8023293310559496</v>
+        <v>168.38</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4573075451901522</v>
+        <v>11582.935</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1774467045201244</v>
+        <v>88.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2400626910728637</v>
+        <v>24.545</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8329317147794789</v>
+        <v>175.735</v>
       </c>
       <c r="J3" t="n">
-        <v>0.398258848578162</v>
+        <v>10875.925</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +587,16 @@
         <v>26.66666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2857573957093569</v>
+        <v>104.3333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4181403008383299</v>
+        <v>30.45333333333334</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7658563162216627</v>
+        <v>160.69</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5036241408118625</v>
+        <v>12149.48333333333</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2064529205854221</v>
+        <v>93</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2675671385029357</v>
+        <v>25.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8181909479129907</v>
+        <v>172.07</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3680488489357873</v>
+        <v>10516.315</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2760647756719841</v>
+        <v>103</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4897029019942513</v>
+        <v>32.81</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9536848802828373</v>
+        <v>225.81</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7417325613126429</v>
+        <v>15597.4</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005867159432543292</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003225606170662604</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2299001454705449</v>
+        <v>87.13</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007893732169051379</v>
+        <v>3744.3</v>
       </c>
     </row>
     <row r="8">
@@ -739,16 +739,16 @@
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07559114778621401</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1007623141426966</v>
+        <v>18.815</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8337754781936609</v>
+        <v>175.9525</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1741130307862288</v>
+        <v>8046.5525</v>
       </c>
     </row>
     <row r="9">
@@ -777,16 +777,16 @@
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002959523730839171</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01014069857965996</v>
+        <v>10.89</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999929202908204</v>
+        <v>486.57</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04753588359614002</v>
+        <v>5623.93</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +815,16 @@
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1172614474832809</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1187589523872879</v>
+        <v>19.705</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6299853917791058</v>
+        <v>137.945</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2029508713220537</v>
+        <v>8453.055</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +853,16 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1837440880850577</v>
+        <v>89.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2067219134251709</v>
+        <v>23.34</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5932922252278114</v>
+        <v>132.75</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2938902848631145</v>
+        <v>9622.700000000001</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +891,16 @@
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2335507696159413</v>
+        <v>97</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3755313373038839</v>
+        <v>29.07</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8385111374571843</v>
+        <v>177.19</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5936375894591257</v>
+        <v>13312.44</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +929,16 @@
         <v>18.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.172782639479011</v>
+        <v>87.75</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2593441979970989</v>
+        <v>25.2175</v>
       </c>
       <c r="I13" t="n">
-        <v>0.858175542118528</v>
+        <v>182.6675</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4018935794148221</v>
+        <v>10919.2025</v>
       </c>
     </row>
     <row r="14">
@@ -967,16 +967,16 @@
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05678739094555179</v>
+        <v>64</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06820738360837683</v>
+        <v>16.95</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7766252043518937</v>
+        <v>162.86</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09597026918406851</v>
+        <v>6755.05</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +1005,16 @@
         <v>18.33333333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0854433054266192</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1117364770167132</v>
+        <v>19.36666666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9045431331381879</v>
+        <v>198.6583333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2024632503227659</v>
+        <v>8446.375</v>
       </c>
     </row>
     <row r="16">
@@ -1043,16 +1043,16 @@
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3239328365681187</v>
+        <v>109.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0.40126542536733</v>
+        <v>29.905</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6403479978930986</v>
+        <v>139.465</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5652934985167543</v>
+        <v>12934.615</v>
       </c>
     </row>
     <row r="17">
@@ -1081,16 +1081,16 @@
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.157616678310511</v>
+        <v>85.25</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1495941755193178</v>
+        <v>21.085</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4965821022818099</v>
+        <v>120.08</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1606372904616271</v>
+        <v>7847.18</v>
       </c>
     </row>
     <row r="18">
@@ -1119,16 +1119,16 @@
         <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3016592495764266</v>
+        <v>106.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3578343734034584</v>
+        <v>28.495</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5463133492902255</v>
+        <v>126.445</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4332951665453708</v>
+        <v>11294.09</v>
       </c>
     </row>
     <row r="19">
@@ -1157,16 +1157,16 @@
         <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1743316238019911</v>
+        <v>88</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1986968541135315</v>
+        <v>23.04</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5605436038660028</v>
+        <v>128.32</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3385568215332167</v>
+        <v>10163.93</v>
       </c>
     </row>
     <row r="20">
@@ -1195,16 +1195,16 @@
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.31276330424845</v>
+        <v>108</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3285996515664799</v>
+        <v>27.54</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4673189401246683</v>
+        <v>116.44</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3981332698745448</v>
+        <v>10874.43</v>
       </c>
     </row>
     <row r="21">
@@ -1233,16 +1233,16 @@
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4998573991833071</v>
+        <v>133</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6081966944160855</v>
+        <v>36.99</v>
       </c>
       <c r="I21" t="n">
-        <v>0.735307860856411</v>
+        <v>154.91</v>
       </c>
       <c r="J21" t="n">
-        <v>0.732925520668674</v>
+        <v>15440.16</v>
       </c>
     </row>
     <row r="22">
@@ -1271,16 +1271,16 @@
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1172614474832809</v>
+        <v>78</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1031964734842187</v>
+        <v>18.94</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6854210950647754</v>
+        <v>146.41</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1128633770925341</v>
+        <v>7069.06</v>
       </c>
     </row>
     <row r="23">
@@ -1309,16 +1309,16 @@
         <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3202030408398694</v>
+        <v>109</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1471292475856184</v>
+        <v>20.98</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2305789582414242</v>
+        <v>87.22</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02626722246944962</v>
+        <v>4879.31</v>
       </c>
     </row>
     <row r="24">
@@ -1347,16 +1347,16 @@
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3314103273957991</v>
+        <v>110.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0.401727514468628</v>
+        <v>29.92</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7110725653342349</v>
+        <v>150.655</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5615406061537375</v>
+        <v>12885.505</v>
       </c>
     </row>
     <row r="25">
@@ -1385,16 +1385,16 @@
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6541306753232529</v>
+        <v>156</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6845714767223645</v>
+        <v>40.05</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4573243341232545</v>
+        <v>115.21</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7175789250433524</v>
+        <v>15174.66</v>
       </c>
     </row>
     <row r="26">
@@ -1423,16 +1423,16 @@
         <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1561333858338987</v>
+        <v>85</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2510483254062443</v>
+        <v>24.93</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9021109173235261</v>
+        <v>197.67</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4008755648950156</v>
+        <v>10907.08</v>
       </c>
     </row>
     <row r="27">
@@ -1461,16 +1461,16 @@
         <v>21.33333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3041206115447567</v>
+        <v>106.8333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3660361629011826</v>
+        <v>28.76166666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6977595554274807</v>
+        <v>148.4216666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>0.478834444054428</v>
+        <v>11844.40833333333</v>
       </c>
     </row>
     <row r="28">
@@ -1499,16 +1499,16 @@
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2616785929271839</v>
+        <v>101</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2756350156524302</v>
+        <v>25.775</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5351693625044922</v>
+        <v>124.995</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3219522338515491</v>
+        <v>9964.129999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1537,16 +1537,16 @@
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2942982104292741</v>
+        <v>105.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4080405502696879</v>
+        <v>30.125</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8415141274808069</v>
+        <v>177.99</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5536060777254821</v>
+        <v>12782.315</v>
       </c>
     </row>
     <row r="30">
@@ -1575,16 +1575,16 @@
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1444941609826764</v>
+        <v>83</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1061582032274575</v>
+        <v>19.09</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2376299961649102</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08180636038927747</v>
+        <v>6467.83</v>
       </c>
     </row>
     <row r="31">
@@ -1613,16 +1613,16 @@
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998629401224257</v>
+        <v>92</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2396376921260562</v>
+        <v>24.53</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7482167616405935</v>
+        <v>157.29</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3670245142972441</v>
+        <v>10504.11</v>
       </c>
     </row>
     <row r="32">
@@ -1651,16 +1651,16 @@
         <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3202030408398694</v>
+        <v>109</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3687553301683938</v>
+        <v>28.85</v>
       </c>
       <c r="I32" t="n">
-        <v>0.880186853027968</v>
+        <v>189.6</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4736011035959835</v>
+        <v>11780.58</v>
       </c>
     </row>
     <row r="33">
@@ -1689,16 +1689,16 @@
         <v>19</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8070389752532161</v>
+        <v>186.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9408315539889356</v>
+        <v>58.84999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9094958131800502</v>
+        <v>200.74</v>
       </c>
       <c r="J33" t="n">
-        <v>0.985970941861134</v>
+        <v>26424.38</v>
       </c>
     </row>
     <row r="34">
@@ -1727,16 +1727,16 @@
         <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6719584255230622</v>
+        <v>159</v>
       </c>
       <c r="H34" t="n">
-        <v>0.798813983708485</v>
+        <v>45.74</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7276666817788662</v>
+        <v>153.54</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8210485428881578</v>
+        <v>17231.25</v>
       </c>
     </row>
     <row r="35">
@@ -1765,16 +1765,16 @@
         <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9536989396902655</v>
+        <v>248</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9726768280976809</v>
+        <v>66.1675</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7626714444779873</v>
+        <v>160.0625</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9880674716708746</v>
+        <v>26942.065</v>
       </c>
     </row>
     <row r="36">
@@ -1803,16 +1803,16 @@
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9559981007881361</v>
+        <v>250</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8937893261436545</v>
+        <v>52.89</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2752892481510457</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8312695848365474</v>
+        <v>17480.66</v>
       </c>
     </row>
     <row r="37">
@@ -1841,16 +1841,16 @@
         <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>0.957108458611638</v>
+        <v>251</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9877995702118968</v>
+        <v>73.34</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7168147797742717</v>
+        <v>151.64</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9801774730035039</v>
+        <v>25300.9</v>
       </c>
     </row>
     <row r="38">
@@ -1879,16 +1879,16 @@
         <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9397556160833799</v>
+        <v>237.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9615669737971844</v>
+        <v>63</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2595857872054984</v>
+        <v>90.995</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9577293097779883</v>
+        <v>22737.715</v>
       </c>
     </row>
     <row r="39">
@@ -1917,16 +1917,16 @@
         <v>22</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9882166466565859</v>
+        <v>299</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8887779618852927</v>
+        <v>52.4</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0207496987174685</v>
+        <v>44.95</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4798446105787801</v>
+        <v>11856.75</v>
       </c>
     </row>
     <row r="40">
@@ -1955,16 +1955,16 @@
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7926727568214622</v>
+        <v>183</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8682608437926623</v>
+        <v>50.57</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7340357821343052</v>
+        <v>154.68</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9263523492570205</v>
+        <v>20742.03333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1993,16 +1993,16 @@
         <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1743316238019911</v>
+        <v>88</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3161461466080361</v>
+        <v>27.13</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8975440828579138</v>
+        <v>195.87</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5031442256550112</v>
+        <v>12143.53</v>
       </c>
     </row>
     <row r="42">
@@ -2031,16 +2031,16 @@
         <v>19</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6748720040725249</v>
+        <v>159.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6296932169066238</v>
+        <v>37.8125</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6029047226324635</v>
+        <v>134.085</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6927315928072075</v>
+        <v>14765.0175</v>
       </c>
     </row>
     <row r="43">
@@ -2069,16 +2069,16 @@
         <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9918556946587372</v>
+        <v>312</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9315800365545023</v>
+        <v>57.41</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04296524189235756</v>
+        <v>53.59</v>
       </c>
       <c r="J43" t="n">
-        <v>0.815587691775528</v>
+        <v>17102.59</v>
       </c>
     </row>
     <row r="44">
@@ -2107,16 +2107,16 @@
         <v>21.5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9207733398553272</v>
+        <v>226.25</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9651762857098578</v>
+        <v>63.925</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7717468373985612</v>
+        <v>161.8675</v>
       </c>
       <c r="J44" t="n">
-        <v>0.98263830080341</v>
+        <v>25734.715</v>
       </c>
     </row>
     <row r="45">
@@ -2145,16 +2145,16 @@
         <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8732742152453168</v>
+        <v>206</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9354501463754373</v>
+        <v>57.99</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7934772420818164</v>
+        <v>166.42</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9689941266599437</v>
+        <v>23805.73</v>
       </c>
     </row>
     <row r="46">
@@ -2183,16 +2183,16 @@
         <v>26</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7884208243729294</v>
+        <v>182</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8333714772747838</v>
+        <v>47.94</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7107789662044242</v>
+        <v>150.605</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9008325796288666</v>
+        <v>19618.125</v>
       </c>
     </row>
     <row r="47">
@@ -2221,16 +2221,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8746869858051214</v>
+        <v>206.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8710997887024964</v>
+        <v>50.80833333333334</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4843976948228033</v>
+        <v>118.5566666666667</v>
       </c>
       <c r="J47" t="n">
-        <v>0.833896840140249</v>
+        <v>17546.71</v>
       </c>
     </row>
     <row r="48">
@@ -2259,16 +2259,16 @@
         <v>31</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9212465541497232</v>
+        <v>226.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9315800365545023</v>
+        <v>57.41</v>
       </c>
       <c r="I48" t="n">
-        <v>0.421615674422434</v>
+        <v>110.855</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8998049480286251</v>
+        <v>19578.365</v>
       </c>
     </row>
     <row r="49">
@@ -2297,16 +2297,16 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>0.957108458611638</v>
+        <v>251</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9632068755645058</v>
+        <v>63.41</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1283859041725344</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7821529170995745</v>
+        <v>16373.61</v>
       </c>
     </row>
     <row r="50">
@@ -2335,16 +2335,16 @@
         <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9143915556665069</v>
+        <v>223</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9232211861317825</v>
+        <v>56.25</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3559493928957988</v>
+        <v>102.915</v>
       </c>
       <c r="J50" t="n">
-        <v>0.889578327272365</v>
+        <v>19200.59</v>
       </c>
     </row>
     <row r="51">
@@ -2373,16 +2373,16 @@
         <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9780806111775938</v>
+        <v>276.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9278658818026229</v>
+        <v>56.88</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1092714558034818</v>
+        <v>68.86</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7835867103787175</v>
+        <v>16403.045</v>
       </c>
     </row>
     <row r="52">
@@ -2411,16 +2411,16 @@
         <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7321561545324767</v>
+        <v>170</v>
       </c>
       <c r="H52" t="n">
-        <v>0.702181291495303</v>
+        <v>40.82</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3066584593689836</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5965255409849739</v>
+        <v>13351.68</v>
       </c>
     </row>
     <row r="53">
@@ -2449,16 +2449,16 @@
         <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5427324048376525</v>
+        <v>139</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5942619471517533</v>
+        <v>36.47</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5293210004693754</v>
+        <v>124.24</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5964248955573123</v>
+        <v>13350.31</v>
       </c>
     </row>
     <row r="54">
@@ -2487,16 +2487,16 @@
         <v>31</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9318834755324659</v>
+        <v>232.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9603671739448096</v>
+        <v>62.70999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5368291417245132</v>
+        <v>125.21</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9456956767942802</v>
+        <v>21851.71</v>
       </c>
     </row>
     <row r="55">
@@ -2525,16 +2525,16 @@
         <v>20.33333333333333</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8568385092193698</v>
+        <v>200.5</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8740034834265343</v>
+        <v>51.05666666666666</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4652373165021709</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8609473615023684</v>
+        <v>18281.18833333334</v>
       </c>
     </row>
     <row r="56">
@@ -2563,16 +2563,16 @@
         <v>17.5</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8168169307811946</v>
+        <v>189</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8385117226253518</v>
+        <v>48.2975</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3832699134756594</v>
+        <v>106.2175</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8134378468145742</v>
+        <v>17052.76</v>
       </c>
     </row>
     <row r="57">
@@ -2601,16 +2601,16 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7797181230305353</v>
+        <v>180</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7566627938548246</v>
+        <v>43.42</v>
       </c>
       <c r="I57" t="n">
-        <v>0.608143909217857</v>
+        <v>134.82</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7696800964199215</v>
+        <v>16123.5</v>
       </c>
     </row>
     <row r="58">
@@ -2639,16 +2639,16 @@
         <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>0.835196381430615</v>
+        <v>194</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8975421832986609</v>
+        <v>53.27</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7486426259716796</v>
+        <v>157.37</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9135913286288082</v>
+        <v>20143.85</v>
       </c>
     </row>
     <row r="59">
@@ -2677,16 +2677,16 @@
         <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>0.812953549919853</v>
+        <v>188</v>
       </c>
       <c r="H59" t="n">
-        <v>0.841506156548579</v>
+        <v>48.51</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4306329009193654</v>
+        <v>111.95</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8390016346615108</v>
+        <v>17677.48</v>
       </c>
     </row>
     <row r="60">
@@ -2715,16 +2715,16 @@
         <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4369819810581748</v>
+        <v>124.5</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4953646608248466</v>
+        <v>33</v>
       </c>
       <c r="I60" t="n">
-        <v>0.500281905357808</v>
+        <v>120.545</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4883669858125705</v>
+        <v>11961.16</v>
       </c>
     </row>
     <row r="61">
@@ -2753,16 +2753,16 @@
         <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7471398076319475</v>
+        <v>173</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7575378898307963</v>
+        <v>43.465</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4439294542604018</v>
+        <v>113.57</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7801000912897006</v>
+        <v>16331.72</v>
       </c>
     </row>
     <row r="62">
@@ -2791,16 +2791,16 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5771876403080604</v>
+        <v>144</v>
       </c>
       <c r="H62" t="n">
-        <v>0.335004332461288</v>
+        <v>27.75</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03356278867286204</v>
+        <v>50.41</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2771596871894544</v>
+        <v>9416.059999999999</v>
       </c>
     </row>
     <row r="63">
@@ -2829,16 +2829,16 @@
         <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>0.535694464825099</v>
+        <v>138</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4784707736854226</v>
+        <v>32.435</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2471695826338008</v>
+        <v>89.39500000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3932790622751011</v>
+        <v>10816.65</v>
       </c>
     </row>
     <row r="64">
@@ -2867,16 +2867,16 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6167435480034009</v>
+        <v>150</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4358279548278135</v>
+        <v>31.03</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1680770177711213</v>
+        <v>78.48</v>
       </c>
       <c r="J64" t="n">
-        <v>0.290632501518156</v>
+        <v>9582.67</v>
       </c>
     </row>
     <row r="65">
@@ -2905,16 +2905,16 @@
         <v>31</v>
       </c>
       <c r="G65" t="n">
-        <v>0.247498669342625</v>
+        <v>99</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1157225027745836</v>
+        <v>19.56</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5351307329040752</v>
+        <v>124.99</v>
       </c>
       <c r="J65" t="n">
-        <v>0.03007297769621245</v>
+        <v>5035.885</v>
       </c>
     </row>
     <row r="66">
@@ -2943,16 +2943,16 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6947985139689771</v>
+        <v>163</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4097334803482592</v>
+        <v>30.18</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05457020545670025</v>
+        <v>56.96</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1787731719168587</v>
+        <v>8113.97</v>
       </c>
     </row>
     <row r="67">
@@ -2981,16 +2981,16 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7372191920424548</v>
+        <v>171</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4318475398363746</v>
+        <v>30.9</v>
       </c>
       <c r="I67" t="n">
-        <v>0.003836502224913027</v>
+        <v>31.06</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1071282951979887</v>
+        <v>6965.42</v>
       </c>
     </row>
     <row r="68">
@@ -3019,16 +3019,16 @@
         <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5214839860150704</v>
+        <v>136</v>
       </c>
       <c r="H68" t="n">
-        <v>0.401727514468628</v>
+        <v>29.92</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1042422578773164</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2906016124816381</v>
+        <v>9582.290000000001</v>
       </c>
     </row>
     <row r="69">
@@ -3057,16 +3057,16 @@
         <v>14</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4519454730023856</v>
+        <v>126.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3290565869462631</v>
+        <v>27.555</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2924121838763017</v>
+        <v>95.13499999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2594587953431381</v>
+        <v>9194.15</v>
       </c>
     </row>
     <row r="70">
@@ -3095,16 +3095,16 @@
         <v>14</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6920023714079362</v>
+        <v>162.5</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4721496240533727</v>
+        <v>32.225</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0187114360532639</v>
+        <v>43.88500000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2513346785631734</v>
+        <v>9090.959999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3133,16 +3133,16 @@
         <v>42</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5703992832820048</v>
+        <v>143</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6017976084888652</v>
+        <v>36.75</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2998623874513795</v>
+        <v>96.06</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3624665305319497</v>
+        <v>10449.78</v>
       </c>
     </row>
     <row r="72">
@@ -3171,16 +3171,16 @@
         <v>15</v>
       </c>
       <c r="G72" t="n">
-        <v>0.247498669342625</v>
+        <v>99</v>
       </c>
       <c r="H72" t="n">
-        <v>0.192757108031473</v>
+        <v>22.815</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3474512343295194</v>
+        <v>101.885</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2041286391431903</v>
+        <v>8469.165000000001</v>
       </c>
     </row>
     <row r="73">
@@ -3209,16 +3209,16 @@
         <v>22.5</v>
       </c>
       <c r="G73" t="n">
-        <v>0.535694464825099</v>
+        <v>138</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4285527291128872</v>
+        <v>30.7925</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04376758044463144</v>
+        <v>53.84</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2369922887691443</v>
+        <v>8906.385</v>
       </c>
     </row>
     <row r="74">
@@ -3247,16 +3247,16 @@
         <v>24</v>
       </c>
       <c r="G74" t="n">
-        <v>0.535694464825099</v>
+        <v>138</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2816871287923571</v>
+        <v>25.98</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02574428721137372</v>
+        <v>47.29</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1763419606560971</v>
+        <v>8078.89</v>
       </c>
     </row>
     <row r="75">
@@ -3285,16 +3285,16 @@
         <v>16</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5612663733209338</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3248459864321818</v>
+        <v>27.41666666666666</v>
       </c>
       <c r="I75" t="n">
-        <v>0.08350240527770016</v>
+        <v>63.81666666666666</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1608320427655558</v>
+        <v>7850.111666666666</v>
       </c>
     </row>
     <row r="76">
@@ -3323,16 +3323,16 @@
         <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3426654985768108</v>
+        <v>112</v>
       </c>
       <c r="H76" t="n">
-        <v>0.306179640150764</v>
+        <v>26.8</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2798964756810245</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3486584471698492</v>
+        <v>10284.91</v>
       </c>
     </row>
     <row r="77">
@@ -3361,16 +3361,16 @@
         <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>0.410635363938838</v>
+        <v>121</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1931509298749036</v>
+        <v>22.83</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03587465315006698</v>
+        <v>51.24</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07031172316377071</v>
+        <v>6213.36</v>
       </c>
     </row>
     <row r="78">
@@ -3399,16 +3399,16 @@
         <v>22.66666666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3778759899134018</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2033191544941965</v>
+        <v>23.21333333333333</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1571243497007583</v>
+        <v>76.82333333333334</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1100583505950978</v>
+        <v>7018.72</v>
       </c>
     </row>
     <row r="79">
@@ -3437,16 +3437,16 @@
         <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2688475163412318</v>
+        <v>102</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3420362344556159</v>
+        <v>27.98</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8633101104982983</v>
+        <v>184.2</v>
       </c>
       <c r="J79" t="n">
-        <v>0.44549752490865</v>
+        <v>11440.56</v>
       </c>
     </row>
     <row r="80">
@@ -3475,16 +3475,16 @@
         <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3955234159231503</v>
+        <v>119</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4550440008330117</v>
+        <v>31.66</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7919803775100307</v>
+        <v>166.095</v>
       </c>
       <c r="J80" t="n">
-        <v>0.478879610245739</v>
+        <v>11844.96</v>
       </c>
     </row>
     <row r="81">
@@ -3513,16 +3513,16 @@
         <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5906011749757134</v>
+        <v>146</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6749238662321073</v>
+        <v>39.64</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3788193888988572</v>
+        <v>105.68</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7142122421119264</v>
+        <v>15117.76</v>
       </c>
     </row>
     <row r="82">
@@ -3551,16 +3551,16 @@
         <v>19</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3426654985768108</v>
+        <v>112</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3873969443865761</v>
+        <v>29.455</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6136971314029227</v>
+        <v>135.605</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4161812994350646</v>
+        <v>11089.5</v>
       </c>
     </row>
     <row r="83">
@@ -3589,16 +3589,16 @@
         <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6601388091644598</v>
+        <v>157</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8294031711012601</v>
+        <v>47.67</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7666129218477808</v>
+        <v>160.84</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9016875558209737</v>
+        <v>19651.475</v>
       </c>
     </row>
     <row r="84">
@@ -3627,16 +3627,16 @@
         <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>0.372835182013963</v>
+        <v>116</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3119111993025689</v>
+        <v>26.99</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2527747487280573</v>
+        <v>90.12</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2181343106156652</v>
+        <v>8658.24</v>
       </c>
     </row>
     <row r="85">
@@ -3665,16 +3665,16 @@
         <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6037893279317648</v>
+        <v>148</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6150653078618341</v>
+        <v>37.25</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3708727382739263</v>
+        <v>104.72</v>
       </c>
       <c r="J85" t="n">
-        <v>0.5408994384672478</v>
+        <v>12618.77</v>
       </c>
     </row>
     <row r="86">
@@ -3703,16 +3703,16 @@
         <v>19</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4332291393265809</v>
+        <v>124</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4553478991210042</v>
+        <v>31.67</v>
       </c>
       <c r="I86" t="n">
-        <v>0.599750196059169</v>
+        <v>133.645</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5117773842715269</v>
+        <v>12250.94</v>
       </c>
     </row>
     <row r="87">
@@ -3741,16 +3741,16 @@
         <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6357197952222319</v>
+        <v>153</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6796533780531454</v>
+        <v>39.84</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4739544145613389</v>
+        <v>117.26</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7078595595167916</v>
+        <v>15011.63</v>
       </c>
     </row>
     <row r="88">
@@ -3779,16 +3779,16 @@
         <v>31</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6975777245363048</v>
+        <v>163.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7513638876353074</v>
+        <v>43.15</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5331588211157929</v>
+        <v>124.735</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7535746816714429</v>
+        <v>15814.995</v>
       </c>
     </row>
     <row r="89">
@@ -3817,16 +3817,16 @@
         <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05014995863940287</v>
+        <v>62</v>
       </c>
       <c r="H89" t="n">
-        <v>0.05080488548417511</v>
+        <v>15.73</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6580255734708629</v>
+        <v>142.12</v>
       </c>
       <c r="J89" t="n">
-        <v>0.06305868960978001</v>
+        <v>6040.1</v>
       </c>
     </row>
     <row r="90">
@@ -3855,16 +3855,16 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6037893279317648</v>
+        <v>148</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6171652192829132</v>
+        <v>37.33</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4495739604569446</v>
+        <v>114.26</v>
       </c>
       <c r="J90" t="n">
-        <v>0.6279080792574843</v>
+        <v>13788.32</v>
       </c>
     </row>
     <row r="91">
@@ -3893,16 +3893,16 @@
         <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3955234159231503</v>
+        <v>119</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4052181912887174</v>
+        <v>30.03333333333333</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5038400350191764</v>
+        <v>120.9933333333333</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4436553962392927</v>
+        <v>11418.41</v>
       </c>
     </row>
     <row r="92">
@@ -3931,16 +3931,16 @@
         <v>20</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5392192121048206</v>
+        <v>138.5</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5832318340830575</v>
+        <v>36.065</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4700325633922996</v>
+        <v>116.775</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5970549965968797</v>
+        <v>13358.89</v>
       </c>
     </row>
     <row r="93">
@@ -3969,16 +3969,16 @@
         <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2198604522300633</v>
+        <v>95</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1992281562682658</v>
+        <v>23.06</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5092324204307306</v>
+        <v>121.675</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1906041567906406</v>
+        <v>8281.994999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4007,16 +4007,16 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2266718278002482</v>
+        <v>96</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1641559435430039</v>
+        <v>21.69</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3202458420103974</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1919855159922883</v>
+        <v>8301.34</v>
       </c>
     </row>
     <row r="95">
@@ -4045,16 +4045,16 @@
         <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04255701729440466</v>
+        <v>59.5</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03358673063602589</v>
+        <v>14.23</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4671973465611237</v>
+        <v>116.425</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0455607758653039</v>
+        <v>5565.235</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,14 +529,21 @@
         <v>111.5</v>
       </c>
       <c r="H2" t="n">
-        <v>30.815</v>
+        <v>103.455</v>
       </c>
       <c r="I2" t="n">
+        <v>103.455</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.13</v>
+      </c>
+      <c r="K2" t="n">
         <v>168.38</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>11582.935</v>
       </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,13 +574,22 @@
         <v>88.5</v>
       </c>
       <c r="H3" t="n">
-        <v>24.545</v>
+        <v>89.03999999999999</v>
       </c>
       <c r="I3" t="n">
+        <v>85.015</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35.72499999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>175.735</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>10875.925</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +621,22 @@
         <v>104.3333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>30.45333333333334</v>
+        <v>103.7366666666667</v>
       </c>
       <c r="I4" t="n">
+        <v>89.31333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45.48333333333333</v>
+      </c>
+      <c r="K4" t="n">
         <v>160.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>12149.48333333333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +668,22 @@
         <v>93</v>
       </c>
       <c r="H5" t="n">
-        <v>25.5</v>
+        <v>93.22499999999999</v>
       </c>
       <c r="I5" t="n">
+        <v>80.655</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="K5" t="n">
         <v>172.07</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>10516.315</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +715,22 @@
         <v>103</v>
       </c>
       <c r="H6" t="n">
-        <v>32.81</v>
+        <v>103.29</v>
       </c>
       <c r="I6" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="K6" t="n">
         <v>225.81</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>15597.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="7">
@@ -704,13 +762,22 @@
         <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>8.609999999999999</v>
+        <v>38.23</v>
       </c>
       <c r="I7" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="n">
         <v>87.13</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>3744.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +809,22 @@
         <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>18.815</v>
+        <v>69.4975</v>
       </c>
       <c r="I8" t="n">
+        <v>63.6325</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.0175</v>
+      </c>
+      <c r="K8" t="n">
         <v>175.9525</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>8046.5525</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +856,22 @@
         <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>10.89</v>
+        <v>33.87</v>
       </c>
       <c r="I9" t="n">
+        <v>32.52999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="K9" t="n">
         <v>486.57</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>5623.93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="10">
@@ -818,13 +903,22 @@
         <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>19.705</v>
+        <v>77.8</v>
       </c>
       <c r="I10" t="n">
+        <v>71.935</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="K10" t="n">
         <v>137.945</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>8453.055</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +950,22 @@
         <v>89.5</v>
       </c>
       <c r="H11" t="n">
-        <v>23.34</v>
+        <v>89.87</v>
       </c>
       <c r="I11" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35.105</v>
+      </c>
+      <c r="K11" t="n">
         <v>132.75</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>9622.700000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +997,22 @@
         <v>97</v>
       </c>
       <c r="H12" t="n">
-        <v>29.07</v>
+        <v>97.92</v>
       </c>
       <c r="I12" t="n">
+        <v>82.16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="K12" t="n">
         <v>177.19</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>13312.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1044,22 @@
         <v>87.75</v>
       </c>
       <c r="H13" t="n">
-        <v>25.2175</v>
+        <v>87.86</v>
       </c>
       <c r="I13" t="n">
+        <v>78.89249999999998</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="K13" t="n">
         <v>182.6675</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>10919.2025</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="14">
@@ -970,13 +1091,22 @@
         <v>64</v>
       </c>
       <c r="H14" t="n">
-        <v>16.95</v>
+        <v>64.72</v>
       </c>
       <c r="I14" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="K14" t="n">
         <v>162.86</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6755.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1138,22 @@
         <v>71.33333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>19.36666666666667</v>
+        <v>71.765</v>
       </c>
       <c r="I15" t="n">
+        <v>66.00999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>28.465</v>
+      </c>
+      <c r="K15" t="n">
         <v>198.6583333333333</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>8446.375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="16">
@@ -1046,14 +1185,21 @@
         <v>109.5</v>
       </c>
       <c r="H16" t="n">
-        <v>29.905</v>
+        <v>109.83</v>
       </c>
       <c r="I16" t="n">
+        <v>102.115</v>
+      </c>
+      <c r="J16" t="n">
+        <v>44.435</v>
+      </c>
+      <c r="K16" t="n">
         <v>139.465</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>12934.615</v>
       </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1084,13 +1230,22 @@
         <v>85.25</v>
       </c>
       <c r="H17" t="n">
-        <v>21.085</v>
+        <v>85.00999999999999</v>
       </c>
       <c r="I17" t="n">
+        <v>77.55249999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32.2575</v>
+      </c>
+      <c r="K17" t="n">
         <v>120.08</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>7847.18</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1277,22 @@
         <v>106.5</v>
       </c>
       <c r="H18" t="n">
-        <v>28.495</v>
+        <v>106.98</v>
       </c>
       <c r="I18" t="n">
+        <v>101.785</v>
+      </c>
+      <c r="J18" t="n">
+        <v>43.455</v>
+      </c>
+      <c r="K18" t="n">
         <v>126.445</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>11294.09</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1324,22 @@
         <v>88</v>
       </c>
       <c r="H19" t="n">
-        <v>23.04</v>
+        <v>87.86</v>
       </c>
       <c r="I19" t="n">
+        <v>76.13</v>
+      </c>
+      <c r="J19" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K19" t="n">
         <v>128.32</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>10163.93</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="20">
@@ -1198,13 +1371,22 @@
         <v>108</v>
       </c>
       <c r="H20" t="n">
-        <v>27.54</v>
+        <v>108.145</v>
       </c>
       <c r="I20" t="n">
+        <v>92.55500000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="K20" t="n">
         <v>116.44</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>10874.43</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="21">
@@ -1236,13 +1418,22 @@
         <v>133</v>
       </c>
       <c r="H21" t="n">
-        <v>36.99</v>
+        <v>133.47</v>
       </c>
       <c r="I21" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="K21" t="n">
         <v>154.91</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>15440.16</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="22">
@@ -1274,13 +1465,22 @@
         <v>78</v>
       </c>
       <c r="H22" t="n">
-        <v>18.94</v>
+        <v>78.47</v>
       </c>
       <c r="I22" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="K22" t="n">
         <v>146.41</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>7069.06</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="23">
@@ -1312,13 +1512,22 @@
         <v>109</v>
       </c>
       <c r="H23" t="n">
-        <v>20.98</v>
+        <v>109.66</v>
       </c>
       <c r="I23" t="n">
+        <v>96.08500000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="K23" t="n">
         <v>87.22</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>4879.31</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="24">
@@ -1350,13 +1559,22 @@
         <v>110.5</v>
       </c>
       <c r="H24" t="n">
-        <v>29.92</v>
+        <v>111.005</v>
       </c>
       <c r="I24" t="n">
+        <v>104.805</v>
+      </c>
+      <c r="J24" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="K24" t="n">
         <v>150.655</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>12885.505</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="25">
@@ -1388,13 +1606,22 @@
         <v>156</v>
       </c>
       <c r="H25" t="n">
-        <v>40.05</v>
+        <v>156.27</v>
       </c>
       <c r="I25" t="n">
+        <v>143.53</v>
+      </c>
+      <c r="J25" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="K25" t="n">
         <v>115.21</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>15174.66</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="26">
@@ -1426,13 +1653,22 @@
         <v>85</v>
       </c>
       <c r="H26" t="n">
-        <v>24.93</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="I26" t="n">
+        <v>79.14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="K26" t="n">
         <v>197.67</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>10907.08</v>
+      </c>
+      <c r="M26" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="27">
@@ -1464,13 +1700,22 @@
         <v>106.8333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>28.76166666666667</v>
+        <v>107.1983333333333</v>
       </c>
       <c r="I27" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>43.17833333333333</v>
+      </c>
+      <c r="K27" t="n">
         <v>148.4216666666667</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11844.40833333333</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.760000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1747,22 @@
         <v>101</v>
       </c>
       <c r="H28" t="n">
-        <v>25.775</v>
+        <v>101.615</v>
       </c>
       <c r="I28" t="n">
+        <v>89.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>38.855</v>
+      </c>
+      <c r="K28" t="n">
         <v>124.995</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>9964.129999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="29">
@@ -1540,13 +1794,22 @@
         <v>105.5</v>
       </c>
       <c r="H29" t="n">
-        <v>30.125</v>
+        <v>106.14</v>
       </c>
       <c r="I29" t="n">
+        <v>96.08</v>
+      </c>
+      <c r="J29" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="K29" t="n">
         <v>177.99</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>12782.315</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="30">
@@ -1578,13 +1841,22 @@
         <v>83</v>
       </c>
       <c r="H30" t="n">
-        <v>19.09</v>
+        <v>83.16</v>
       </c>
       <c r="I30" t="n">
+        <v>68.06999999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="K30" t="n">
         <v>88.15000000000001</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6467.83</v>
+      </c>
+      <c r="M30" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="31">
@@ -1616,13 +1888,22 @@
         <v>92</v>
       </c>
       <c r="H31" t="n">
-        <v>24.53</v>
+        <v>91.55</v>
       </c>
       <c r="I31" t="n">
+        <v>83.84</v>
+      </c>
+      <c r="J31" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="K31" t="n">
         <v>157.29</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>10504.11</v>
+      </c>
+      <c r="M31" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="32">
@@ -1654,14 +1935,21 @@
         <v>109</v>
       </c>
       <c r="H32" t="n">
-        <v>28.85</v>
+        <v>109.49</v>
       </c>
       <c r="I32" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>43.465</v>
+      </c>
+      <c r="K32" t="n">
         <v>189.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11780.58</v>
       </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1692,13 +1980,22 @@
         <v>186.5</v>
       </c>
       <c r="H33" t="n">
-        <v>58.84999999999999</v>
+        <v>186.96</v>
       </c>
       <c r="I33" t="n">
+        <v>171.87</v>
+      </c>
+      <c r="J33" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="K33" t="n">
         <v>200.74</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>26424.38</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1730,13 +2027,22 @@
         <v>159</v>
       </c>
       <c r="H34" t="n">
-        <v>45.74</v>
+        <v>159.63</v>
       </c>
       <c r="I34" t="n">
+        <v>133.14</v>
+      </c>
+      <c r="J34" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="K34" t="n">
         <v>153.54</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>17231.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="35">
@@ -1768,13 +2074,22 @@
         <v>248</v>
       </c>
       <c r="H35" t="n">
-        <v>66.1675</v>
+        <v>247.91</v>
       </c>
       <c r="I35" t="n">
+        <v>226.285</v>
+      </c>
+      <c r="J35" t="n">
+        <v>99.14750000000001</v>
+      </c>
+      <c r="K35" t="n">
         <v>160.0625</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>26942.065</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="36">
@@ -1806,13 +2121,22 @@
         <v>250</v>
       </c>
       <c r="H36" t="n">
-        <v>52.89</v>
+        <v>250.18</v>
       </c>
       <c r="I36" t="n">
+        <v>234.76</v>
+      </c>
+      <c r="J36" t="n">
+        <v>81.47</v>
+      </c>
+      <c r="K36" t="n">
         <v>92.98999999999999</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>17480.66</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="37">
@@ -1844,13 +2168,22 @@
         <v>251</v>
       </c>
       <c r="H37" t="n">
-        <v>73.34</v>
+        <v>250.84</v>
       </c>
       <c r="I37" t="n">
+        <v>214.96</v>
+      </c>
+      <c r="J37" t="n">
+        <v>111.18</v>
+      </c>
+      <c r="K37" t="n">
         <v>151.64</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>25300.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="38">
@@ -1882,13 +2215,22 @@
         <v>237.5</v>
       </c>
       <c r="H38" t="n">
-        <v>63</v>
+        <v>231.065</v>
       </c>
       <c r="I38" t="n">
+        <v>229.72</v>
+      </c>
+      <c r="J38" t="n">
+        <v>96.065</v>
+      </c>
+      <c r="K38" t="n">
         <v>90.995</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>22737.715</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="39">
@@ -1920,13 +2262,22 @@
         <v>299</v>
       </c>
       <c r="H39" t="n">
-        <v>52.4</v>
+        <v>298.8</v>
       </c>
       <c r="I39" t="n">
+        <v>282.37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="K39" t="n">
         <v>44.95</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11856.75</v>
+      </c>
+      <c r="M39" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="40">
@@ -1958,13 +2309,22 @@
         <v>183</v>
       </c>
       <c r="H40" t="n">
-        <v>50.57</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="I40" t="n">
+        <v>160.0766666666667</v>
+      </c>
+      <c r="J40" t="n">
+        <v>75.92666666666666</v>
+      </c>
+      <c r="K40" t="n">
         <v>154.68</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>20742.03333333333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="41">
@@ -1996,13 +2356,22 @@
         <v>88</v>
       </c>
       <c r="H41" t="n">
-        <v>27.13</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="I41" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="K41" t="n">
         <v>195.87</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12143.53</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2034,13 +2403,22 @@
         <v>159.5</v>
       </c>
       <c r="H42" t="n">
-        <v>37.8125</v>
+        <v>159.465</v>
       </c>
       <c r="I42" t="n">
+        <v>142.28</v>
+      </c>
+      <c r="J42" t="n">
+        <v>56.9175</v>
+      </c>
+      <c r="K42" t="n">
         <v>134.085</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>14765.0175</v>
+      </c>
+      <c r="M42" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="43">
@@ -2072,13 +2450,22 @@
         <v>312</v>
       </c>
       <c r="H43" t="n">
-        <v>57.41</v>
+        <v>312.89</v>
       </c>
       <c r="I43" t="n">
+        <v>312.89</v>
+      </c>
+      <c r="J43" t="n">
+        <v>88.61</v>
+      </c>
+      <c r="K43" t="n">
         <v>53.59</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>17102.59</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="44">
@@ -2110,13 +2497,22 @@
         <v>226.25</v>
       </c>
       <c r="H44" t="n">
-        <v>63.925</v>
+        <v>226.1925</v>
       </c>
       <c r="I44" t="n">
+        <v>199.37</v>
+      </c>
+      <c r="J44" t="n">
+        <v>96.1825</v>
+      </c>
+      <c r="K44" t="n">
         <v>161.8675</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>25734.715</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2148,13 +2544,22 @@
         <v>206</v>
       </c>
       <c r="H45" t="n">
-        <v>57.99</v>
+        <v>206.58</v>
       </c>
       <c r="I45" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="K45" t="n">
         <v>166.42</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>23805.73</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="46">
@@ -2186,13 +2591,22 @@
         <v>182</v>
       </c>
       <c r="H46" t="n">
-        <v>47.94</v>
+        <v>181.09</v>
       </c>
       <c r="I46" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="J46" t="n">
+        <v>71.815</v>
+      </c>
+      <c r="K46" t="n">
         <v>150.605</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>19618.125</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="47">
@@ -2224,13 +2638,22 @@
         <v>206.5</v>
       </c>
       <c r="H47" t="n">
-        <v>50.80833333333334</v>
+        <v>207.025</v>
       </c>
       <c r="I47" t="n">
+        <v>181.8183333333334</v>
+      </c>
+      <c r="J47" t="n">
+        <v>78.845</v>
+      </c>
+      <c r="K47" t="n">
         <v>118.5566666666667</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>17546.71</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.900000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -2262,13 +2685,22 @@
         <v>226.5</v>
       </c>
       <c r="H48" t="n">
-        <v>57.41</v>
+        <v>216.81</v>
       </c>
       <c r="I48" t="n">
+        <v>207.08</v>
+      </c>
+      <c r="J48" t="n">
+        <v>88.78</v>
+      </c>
+      <c r="K48" t="n">
         <v>110.855</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>19578.365</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="49">
@@ -2300,13 +2732,22 @@
         <v>251</v>
       </c>
       <c r="H49" t="n">
-        <v>63.41</v>
+        <v>251.18</v>
       </c>
       <c r="I49" t="n">
+        <v>212.95</v>
+      </c>
+      <c r="J49" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="K49" t="n">
         <v>72.20999999999999</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>16373.61</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="50">
@@ -2338,13 +2779,22 @@
         <v>223</v>
       </c>
       <c r="H50" t="n">
-        <v>56.25</v>
+        <v>223.515</v>
       </c>
       <c r="I50" t="n">
+        <v>184.95</v>
+      </c>
+      <c r="J50" t="n">
+        <v>87.30500000000001</v>
+      </c>
+      <c r="K50" t="n">
         <v>102.915</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>19200.59</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="51">
@@ -2376,13 +2826,22 @@
         <v>276.5</v>
       </c>
       <c r="H51" t="n">
-        <v>56.88</v>
+        <v>276.5</v>
       </c>
       <c r="I51" t="n">
+        <v>271.81</v>
+      </c>
+      <c r="J51" t="n">
+        <v>89.075</v>
+      </c>
+      <c r="K51" t="n">
         <v>68.86</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>16403.045</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="52">
@@ -2414,13 +2873,22 @@
         <v>170</v>
       </c>
       <c r="H52" t="n">
-        <v>40.82</v>
+        <v>169.69</v>
       </c>
       <c r="I52" t="n">
+        <v>150.24</v>
+      </c>
+      <c r="J52" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="K52" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>13351.68</v>
+      </c>
+      <c r="M52" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="53">
@@ -2452,13 +2920,22 @@
         <v>139</v>
       </c>
       <c r="H53" t="n">
-        <v>36.47</v>
+        <v>139.17</v>
       </c>
       <c r="I53" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="K53" t="n">
         <v>124.24</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>13350.31</v>
+      </c>
+      <c r="M53" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="54">
@@ -2490,13 +2967,22 @@
         <v>232.5</v>
       </c>
       <c r="H54" t="n">
-        <v>62.70999999999999</v>
+        <v>203.895</v>
       </c>
       <c r="I54" t="n">
+        <v>198.025</v>
+      </c>
+      <c r="J54" t="n">
+        <v>96.49000000000001</v>
+      </c>
+      <c r="K54" t="n">
         <v>125.21</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>21851.71</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="55">
@@ -2528,13 +3014,22 @@
         <v>200.5</v>
       </c>
       <c r="H55" t="n">
-        <v>51.05666666666666</v>
+        <v>200.82</v>
       </c>
       <c r="I55" t="n">
+        <v>165.1083333333333</v>
+      </c>
+      <c r="J55" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="K55" t="n">
         <v>116.1833333333333</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>18281.18833333334</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="56">
@@ -2566,13 +3061,22 @@
         <v>189</v>
       </c>
       <c r="H56" t="n">
-        <v>48.2975</v>
+        <v>188.9775</v>
       </c>
       <c r="I56" t="n">
+        <v>164.245</v>
+      </c>
+      <c r="J56" t="n">
+        <v>75.315</v>
+      </c>
+      <c r="K56" t="n">
         <v>106.2175</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>17052.76</v>
+      </c>
+      <c r="M56" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="57">
@@ -2604,13 +3108,22 @@
         <v>180</v>
       </c>
       <c r="H57" t="n">
-        <v>43.42</v>
+        <v>180.08</v>
       </c>
       <c r="I57" t="n">
+        <v>170.69</v>
+      </c>
+      <c r="J57" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="K57" t="n">
         <v>134.82</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>16123.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="58">
@@ -2642,13 +3155,22 @@
         <v>194</v>
       </c>
       <c r="H58" t="n">
-        <v>53.27</v>
+        <v>194.84</v>
       </c>
       <c r="I58" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="J58" t="n">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="K58" t="n">
         <v>157.37</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>20143.85</v>
+      </c>
+      <c r="M58" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="59">
@@ -2680,13 +3202,22 @@
         <v>188</v>
       </c>
       <c r="H59" t="n">
-        <v>48.51</v>
+        <v>188.47</v>
       </c>
       <c r="I59" t="n">
+        <v>174.05</v>
+      </c>
+      <c r="J59" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="K59" t="n">
         <v>111.95</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>17677.48</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="60">
@@ -2718,13 +3249,22 @@
         <v>124.5</v>
       </c>
       <c r="H60" t="n">
-        <v>33</v>
+        <v>124.42</v>
       </c>
       <c r="I60" t="n">
+        <v>108.325</v>
+      </c>
+      <c r="J60" t="n">
+        <v>50.975</v>
+      </c>
+      <c r="K60" t="n">
         <v>120.545</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>11961.16</v>
+      </c>
+      <c r="M60" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="61">
@@ -2756,13 +3296,22 @@
         <v>173</v>
       </c>
       <c r="H61" t="n">
-        <v>43.465</v>
+        <v>173.21</v>
       </c>
       <c r="I61" t="n">
+        <v>153.085</v>
+      </c>
+      <c r="J61" t="n">
+        <v>66.98</v>
+      </c>
+      <c r="K61" t="n">
         <v>113.57</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>16331.72</v>
+      </c>
+      <c r="M61" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="62">
@@ -2794,14 +3343,21 @@
         <v>144</v>
       </c>
       <c r="H62" t="n">
-        <v>27.75</v>
+        <v>144.54</v>
       </c>
       <c r="I62" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="J62" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="K62" t="n">
         <v>50.41</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>9416.059999999999</v>
       </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2832,13 +3388,22 @@
         <v>138</v>
       </c>
       <c r="H63" t="n">
-        <v>32.435</v>
+        <v>138.675</v>
       </c>
       <c r="I63" t="n">
+        <v>133.145</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50.645</v>
+      </c>
+      <c r="K63" t="n">
         <v>89.39500000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>10816.65</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="64">
@@ -2870,13 +3435,22 @@
         <v>150</v>
       </c>
       <c r="H64" t="n">
-        <v>31.03</v>
+        <v>149.9</v>
       </c>
       <c r="I64" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="J64" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K64" t="n">
         <v>78.48</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>9582.67</v>
+      </c>
+      <c r="M64" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="65">
@@ -2908,13 +3482,22 @@
         <v>99</v>
       </c>
       <c r="H65" t="n">
-        <v>19.56</v>
+        <v>97.255</v>
       </c>
       <c r="I65" t="n">
+        <v>91.38000000000001</v>
+      </c>
+      <c r="J65" t="n">
+        <v>30.225</v>
+      </c>
+      <c r="K65" t="n">
         <v>124.99</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>5035.885</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="66">
@@ -2946,13 +3529,22 @@
         <v>163</v>
       </c>
       <c r="H66" t="n">
-        <v>30.18</v>
+        <v>163.32</v>
       </c>
       <c r="I66" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="K66" t="n">
         <v>56.96</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>8113.97</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="67">
@@ -2984,13 +3576,22 @@
         <v>171</v>
       </c>
       <c r="H67" t="n">
-        <v>30.9</v>
+        <v>171.37</v>
       </c>
       <c r="I67" t="n">
+        <v>150.58</v>
+      </c>
+      <c r="J67" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="K67" t="n">
         <v>31.06</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>6965.42</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="68">
@@ -3022,13 +3623,22 @@
         <v>136</v>
       </c>
       <c r="H68" t="n">
-        <v>29.92</v>
+        <v>135.82</v>
       </c>
       <c r="I68" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>47</v>
+      </c>
+      <c r="K68" t="n">
         <v>67.93000000000001</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>9582.290000000001</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="69">
@@ -3060,13 +3670,22 @@
         <v>126.5</v>
       </c>
       <c r="H69" t="n">
-        <v>27.555</v>
+        <v>126.935</v>
       </c>
       <c r="I69" t="n">
+        <v>107.815</v>
+      </c>
+      <c r="J69" t="n">
+        <v>42.695</v>
+      </c>
+      <c r="K69" t="n">
         <v>95.13499999999999</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>9194.15</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="70">
@@ -3098,13 +3717,22 @@
         <v>162.5</v>
       </c>
       <c r="H70" t="n">
-        <v>32.225</v>
+        <v>162.815</v>
       </c>
       <c r="I70" t="n">
+        <v>159.795</v>
+      </c>
+      <c r="J70" t="n">
+        <v>50.265</v>
+      </c>
+      <c r="K70" t="n">
         <v>43.88500000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>9090.959999999999</v>
+      </c>
+      <c r="M70" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="71">
@@ -3136,13 +3764,22 @@
         <v>143</v>
       </c>
       <c r="H71" t="n">
-        <v>36.75</v>
+        <v>139.84</v>
       </c>
       <c r="I71" t="n">
+        <v>142.86</v>
+      </c>
+      <c r="J71" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="K71" t="n">
         <v>96.06</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>10449.78</v>
+      </c>
+      <c r="M71" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="72">
@@ -3174,13 +3811,22 @@
         <v>99</v>
       </c>
       <c r="H72" t="n">
-        <v>22.815</v>
+        <v>99.26499999999999</v>
       </c>
       <c r="I72" t="n">
+        <v>88.36499999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>34.915</v>
+      </c>
+      <c r="K72" t="n">
         <v>101.885</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>8469.165000000001</v>
+      </c>
+      <c r="M72" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="73">
@@ -3212,13 +3858,22 @@
         <v>138</v>
       </c>
       <c r="H73" t="n">
-        <v>30.7925</v>
+        <v>134.8925</v>
       </c>
       <c r="I73" t="n">
+        <v>131.1225</v>
+      </c>
+      <c r="J73" t="n">
+        <v>47.8525</v>
+      </c>
+      <c r="K73" t="n">
         <v>53.84</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>8906.385</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="74">
@@ -3250,13 +3905,22 @@
         <v>138</v>
       </c>
       <c r="H74" t="n">
-        <v>25.98</v>
+        <v>138.16</v>
       </c>
       <c r="I74" t="n">
+        <v>120.73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="K74" t="n">
         <v>47.29</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>8078.89</v>
+      </c>
+      <c r="M74" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="75">
@@ -3288,13 +3952,22 @@
         <v>141.6666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>27.41666666666666</v>
+        <v>142.1883333333333</v>
       </c>
       <c r="I75" t="n">
+        <v>130.2833333333334</v>
+      </c>
+      <c r="J75" t="n">
+        <v>42.64333333333333</v>
+      </c>
+      <c r="K75" t="n">
         <v>63.81666666666666</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>7850.111666666666</v>
+      </c>
+      <c r="M75" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="76">
@@ -3326,13 +3999,22 @@
         <v>112</v>
       </c>
       <c r="H76" t="n">
-        <v>26.8</v>
+        <v>112.68</v>
       </c>
       <c r="I76" t="n">
+        <v>101.61</v>
+      </c>
+      <c r="J76" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="K76" t="n">
         <v>93.56999999999999</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>10284.91</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="77">
@@ -3364,13 +4046,22 @@
         <v>121</v>
       </c>
       <c r="H77" t="n">
-        <v>22.83</v>
+        <v>121.06</v>
       </c>
       <c r="I77" t="n">
+        <v>111</v>
+      </c>
+      <c r="J77" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="K77" t="n">
         <v>51.24</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>6213.36</v>
+      </c>
+      <c r="M77" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="78">
@@ -3402,13 +4093,22 @@
         <v>116.6666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>23.21333333333333</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="I78" t="n">
+        <v>100.9466666666667</v>
+      </c>
+      <c r="J78" t="n">
+        <v>36.00333333333333</v>
+      </c>
+      <c r="K78" t="n">
         <v>76.82333333333334</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>7018.72</v>
+      </c>
+      <c r="M78" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="79">
@@ -3440,14 +4140,21 @@
         <v>102</v>
       </c>
       <c r="H79" t="n">
-        <v>27.98</v>
+        <v>102.62</v>
       </c>
       <c r="I79" t="n">
+        <v>90.21000000000001</v>
+      </c>
+      <c r="J79" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="K79" t="n">
         <v>184.2</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>11440.56</v>
       </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3478,13 +4185,22 @@
         <v>119</v>
       </c>
       <c r="H80" t="n">
-        <v>31.66</v>
+        <v>119.22</v>
       </c>
       <c r="I80" t="n">
+        <v>110.335</v>
+      </c>
+      <c r="J80" t="n">
+        <v>48.44</v>
+      </c>
+      <c r="K80" t="n">
         <v>166.095</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>11844.96</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="81">
@@ -3516,13 +4232,22 @@
         <v>146</v>
       </c>
       <c r="H81" t="n">
-        <v>39.64</v>
+        <v>146.55</v>
       </c>
       <c r="I81" t="n">
+        <v>114.02</v>
+      </c>
+      <c r="J81" t="n">
+        <v>60.73</v>
+      </c>
+      <c r="K81" t="n">
         <v>105.68</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>15117.76</v>
+      </c>
+      <c r="M81" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="82">
@@ -3554,13 +4279,22 @@
         <v>112</v>
       </c>
       <c r="H82" t="n">
-        <v>29.455</v>
+        <v>112.2575</v>
       </c>
       <c r="I82" t="n">
+        <v>96.75</v>
+      </c>
+      <c r="J82" t="n">
+        <v>45.1425</v>
+      </c>
+      <c r="K82" t="n">
         <v>135.605</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>11089.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="83">
@@ -3592,13 +4326,22 @@
         <v>157</v>
       </c>
       <c r="H83" t="n">
-        <v>47.67</v>
+        <v>157.45</v>
       </c>
       <c r="I83" t="n">
+        <v>128.11</v>
+      </c>
+      <c r="J83" t="n">
+        <v>72.19499999999999</v>
+      </c>
+      <c r="K83" t="n">
         <v>160.84</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19651.475</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="84">
@@ -3630,13 +4373,22 @@
         <v>116</v>
       </c>
       <c r="H84" t="n">
-        <v>26.99</v>
+        <v>116.03</v>
       </c>
       <c r="I84" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="J84" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="K84" t="n">
         <v>90.12</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>8658.24</v>
+      </c>
+      <c r="M84" t="n">
+        <v>7.72</v>
       </c>
     </row>
     <row r="85">
@@ -3668,13 +4420,22 @@
         <v>148</v>
       </c>
       <c r="H85" t="n">
-        <v>37.25</v>
+        <v>148.23</v>
       </c>
       <c r="I85" t="n">
+        <v>139.18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="K85" t="n">
         <v>104.72</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>12618.77</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="86">
@@ -3706,13 +4467,22 @@
         <v>124</v>
       </c>
       <c r="H86" t="n">
-        <v>31.67</v>
+        <v>124.245</v>
       </c>
       <c r="I86" t="n">
+        <v>108.99</v>
+      </c>
+      <c r="J86" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="K86" t="n">
         <v>133.645</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>12250.94</v>
+      </c>
+      <c r="M86" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="87">
@@ -3744,13 +4514,22 @@
         <v>153</v>
       </c>
       <c r="H87" t="n">
-        <v>39.84</v>
+        <v>153.93</v>
       </c>
       <c r="I87" t="n">
+        <v>140.85</v>
+      </c>
+      <c r="J87" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="K87" t="n">
         <v>117.26</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>15011.63</v>
+      </c>
+      <c r="M87" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="88">
@@ -3782,13 +4561,22 @@
         <v>163.5</v>
       </c>
       <c r="H88" t="n">
-        <v>43.15</v>
+        <v>141.69</v>
       </c>
       <c r="I88" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>65.61500000000001</v>
+      </c>
+      <c r="K88" t="n">
         <v>124.735</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>15814.995</v>
+      </c>
+      <c r="M88" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="89">
@@ -3820,13 +4608,22 @@
         <v>62</v>
       </c>
       <c r="H89" t="n">
-        <v>15.73</v>
+        <v>62.38</v>
       </c>
       <c r="I89" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="K89" t="n">
         <v>142.12</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>6040.1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="90">
@@ -3858,13 +4655,22 @@
         <v>148</v>
       </c>
       <c r="H90" t="n">
-        <v>37.33</v>
+        <v>148.225</v>
       </c>
       <c r="I90" t="n">
+        <v>135.485</v>
+      </c>
+      <c r="J90" t="n">
+        <v>57.32</v>
+      </c>
+      <c r="K90" t="n">
         <v>114.26</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>13788.32</v>
+      </c>
+      <c r="M90" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="91">
@@ -3896,13 +4702,22 @@
         <v>119</v>
       </c>
       <c r="H91" t="n">
-        <v>30.03333333333333</v>
+        <v>119.5</v>
       </c>
       <c r="I91" t="n">
+        <v>112.12</v>
+      </c>
+      <c r="J91" t="n">
+        <v>45.95</v>
+      </c>
+      <c r="K91" t="n">
         <v>120.9933333333333</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>11418.41</v>
+      </c>
+      <c r="M91" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="92">
@@ -3934,13 +4749,22 @@
         <v>138.5</v>
       </c>
       <c r="H92" t="n">
-        <v>36.065</v>
+        <v>138.835</v>
       </c>
       <c r="I92" t="n">
+        <v>119.725</v>
+      </c>
+      <c r="J92" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="K92" t="n">
         <v>116.775</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>13358.89</v>
+      </c>
+      <c r="M92" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="93">
@@ -3972,13 +4796,22 @@
         <v>95</v>
       </c>
       <c r="H93" t="n">
-        <v>23.06</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="I93" t="n">
+        <v>85.845</v>
+      </c>
+      <c r="J93" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="K93" t="n">
         <v>121.675</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>8281.994999999999</v>
+      </c>
+      <c r="M93" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="94">
@@ -4010,13 +4843,22 @@
         <v>96</v>
       </c>
       <c r="H94" t="n">
-        <v>21.69</v>
+        <v>96.92</v>
       </c>
       <c r="I94" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="J94" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="K94" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>8301.34</v>
+      </c>
+      <c r="M94" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="95">
@@ -4048,13 +4890,22 @@
         <v>59.5</v>
       </c>
       <c r="H95" t="n">
-        <v>14.23</v>
+        <v>59.355</v>
       </c>
       <c r="I95" t="n">
+        <v>53.31999999999999</v>
+      </c>
+      <c r="J95" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="K95" t="n">
         <v>116.425</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>5565.235</v>
+      </c>
+      <c r="M95" t="n">
+        <v>36.17</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>38.66666666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>111.5</v>
+        <v>95.33333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>103.455</v>
+        <v>89.98666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>103.455</v>
+        <v>88.08666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>46.13</v>
+        <v>39.1</v>
       </c>
       <c r="K2" t="n">
-        <v>168.38</v>
+        <v>171.81</v>
       </c>
       <c r="L2" t="n">
-        <v>11582.935</v>
+        <v>9942.146666666666</v>
       </c>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -562,31 +562,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
       <c r="H3" t="n">
-        <v>89.03999999999999</v>
+        <v>87.69499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>85.015</v>
+        <v>81.8275</v>
       </c>
       <c r="J3" t="n">
-        <v>35.72499999999999</v>
+        <v>35.1375</v>
       </c>
       <c r="K3" t="n">
-        <v>175.735</v>
+        <v>157.8825</v>
       </c>
       <c r="L3" t="n">
-        <v>10875.925</v>
+        <v>10303.7175</v>
       </c>
       <c r="M3" t="n">
         <v>-1.08</v>
@@ -609,31 +609,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.66666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>37.33333333333334</v>
+        <v>34.33333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>26.66666666666667</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>104.3333333333333</v>
+        <v>93.16666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>103.7366666666667</v>
+        <v>93.005</v>
       </c>
       <c r="I4" t="n">
-        <v>89.31333333333333</v>
+        <v>81.15333333333332</v>
       </c>
       <c r="J4" t="n">
-        <v>45.48333333333333</v>
+        <v>39.74833333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>160.69</v>
+        <v>160.0933333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>12149.48333333333</v>
+        <v>10739.52166666667</v>
       </c>
       <c r="M4" t="n">
         <v>-9.16</v>
@@ -699,38 +699,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>103</v>
+        <v>72.25</v>
       </c>
       <c r="H6" t="n">
-        <v>103.29</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>102.95</v>
+        <v>61.45249999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>46.99</v>
+        <v>29.35</v>
       </c>
       <c r="K6" t="n">
-        <v>225.81</v>
+        <v>148.69</v>
       </c>
       <c r="L6" t="n">
-        <v>15597.4</v>
+        <v>7892.785</v>
       </c>
       <c r="M6" t="n">
-        <v>-10.16</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -746,38 +746,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>76.25</v>
       </c>
       <c r="H7" t="n">
-        <v>38.23</v>
+        <v>76.45750000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>31.86</v>
+        <v>72.7675</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>32.0425</v>
       </c>
       <c r="K7" t="n">
-        <v>87.13</v>
+        <v>181.7525</v>
       </c>
       <c r="L7" t="n">
-        <v>3744.3</v>
+        <v>9522.360000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.17</v>
+        <v>-10.16</v>
       </c>
     </row>
     <row r="8">
@@ -793,38 +793,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>64.5</v>
       </c>
       <c r="H8" t="n">
-        <v>69.4975</v>
+        <v>64.89</v>
       </c>
       <c r="I8" t="n">
-        <v>63.6325</v>
+        <v>60.36499999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>28.0175</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>175.9525</v>
+        <v>126.84</v>
       </c>
       <c r="L8" t="n">
-        <v>8046.5525</v>
+        <v>7153.635</v>
       </c>
       <c r="M8" t="n">
-        <v>10.9</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="9">
@@ -840,38 +840,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>59.5</v>
       </c>
       <c r="H9" t="n">
-        <v>33.87</v>
+        <v>60.02500000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>32.52999999999999</v>
+        <v>53.1525</v>
       </c>
       <c r="J9" t="n">
-        <v>14.76</v>
+        <v>23.995</v>
       </c>
       <c r="K9" t="n">
-        <v>486.57</v>
+        <v>163.5375</v>
       </c>
       <c r="L9" t="n">
-        <v>5623.93</v>
+        <v>6927.305</v>
       </c>
       <c r="M9" t="n">
-        <v>17.44</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="10">
@@ -887,38 +887,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>57.75</v>
       </c>
       <c r="H10" t="n">
-        <v>77.8</v>
+        <v>58.35</v>
       </c>
       <c r="I10" t="n">
-        <v>71.935</v>
+        <v>51.3925</v>
       </c>
       <c r="J10" t="n">
-        <v>29.21</v>
+        <v>23.68</v>
       </c>
       <c r="K10" t="n">
-        <v>137.945</v>
+        <v>215.205</v>
       </c>
       <c r="L10" t="n">
-        <v>8453.055</v>
+        <v>7373.81</v>
       </c>
       <c r="M10" t="n">
-        <v>23.05</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="11">
@@ -934,38 +934,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>89.5</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>89.87</v>
+        <v>49.74333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>78.47</v>
+        <v>46.95</v>
       </c>
       <c r="J11" t="n">
-        <v>35.105</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>132.75</v>
+        <v>283.51</v>
       </c>
       <c r="L11" t="n">
-        <v>9622.700000000001</v>
+        <v>6414.016666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>18.8</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="12">
@@ -981,38 +981,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>97</v>
+        <v>67.16666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>97.92</v>
+        <v>67.125</v>
       </c>
       <c r="I12" t="n">
-        <v>82.16</v>
+        <v>57.51333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>42.33</v>
+        <v>26.295</v>
       </c>
       <c r="K12" t="n">
-        <v>177.19</v>
+        <v>171.0933333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>13312.44</v>
+        <v>7587.688333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>5.22</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="13">
@@ -1028,38 +1028,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>18.5</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>87.75</v>
+        <v>69.5</v>
       </c>
       <c r="H13" t="n">
-        <v>87.86</v>
+        <v>70.2</v>
       </c>
       <c r="I13" t="n">
-        <v>78.89249999999998</v>
+        <v>59.69333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>37.28</v>
+        <v>28.43166666666667</v>
       </c>
       <c r="K13" t="n">
-        <v>182.6675</v>
+        <v>183.97</v>
       </c>
       <c r="L13" t="n">
-        <v>10919.2025</v>
+        <v>8254.99</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.89</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="14">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1088,25 +1088,25 @@
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H14" t="n">
-        <v>64.72</v>
+        <v>97.92</v>
       </c>
       <c r="I14" t="n">
-        <v>53.65</v>
+        <v>82.16</v>
       </c>
       <c r="J14" t="n">
-        <v>25.69</v>
+        <v>42.33</v>
       </c>
       <c r="K14" t="n">
-        <v>162.86</v>
+        <v>177.19</v>
       </c>
       <c r="L14" t="n">
-        <v>6755.05</v>
+        <v>13312.44</v>
       </c>
       <c r="M14" t="n">
-        <v>21.58</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="15">
@@ -1122,44 +1122,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="F15" t="n">
-        <v>18.33333333333334</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="G15" t="n">
-        <v>71.33333333333333</v>
+        <v>84.41666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>71.765</v>
+        <v>84.64666666666668</v>
       </c>
       <c r="I15" t="n">
-        <v>66.00999999999999</v>
+        <v>76.62833333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>28.465</v>
+        <v>35.2275</v>
       </c>
       <c r="K15" t="n">
-        <v>198.6583333333333</v>
+        <v>184.4466666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>8446.375</v>
+        <v>10158.99666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>21.58</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1169,42 +1169,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>109.5</v>
+        <v>61.5</v>
       </c>
       <c r="H16" t="n">
-        <v>109.83</v>
+        <v>61.87</v>
       </c>
       <c r="I16" t="n">
-        <v>102.115</v>
+        <v>50.55249999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>44.435</v>
+        <v>24.2225</v>
       </c>
       <c r="K16" t="n">
-        <v>139.465</v>
+        <v>158.8125</v>
       </c>
       <c r="L16" t="n">
-        <v>12934.615</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>6601.772499999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>21.58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1214,44 +1216,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="G17" t="n">
-        <v>85.25</v>
+        <v>49.25</v>
       </c>
       <c r="H17" t="n">
-        <v>85.00999999999999</v>
+        <v>49.5475</v>
       </c>
       <c r="I17" t="n">
-        <v>77.55249999999999</v>
+        <v>44.3475</v>
       </c>
       <c r="J17" t="n">
-        <v>32.2575</v>
+        <v>19.405</v>
       </c>
       <c r="K17" t="n">
-        <v>120.08</v>
+        <v>155.74</v>
       </c>
       <c r="L17" t="n">
-        <v>7847.18</v>
+        <v>5662.575000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1261,38 +1263,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="G18" t="n">
-        <v>106.5</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>106.98</v>
+        <v>71.765</v>
       </c>
       <c r="I18" t="n">
-        <v>101.785</v>
+        <v>66.00999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>43.455</v>
+        <v>28.465</v>
       </c>
       <c r="K18" t="n">
-        <v>126.445</v>
+        <v>198.6583333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>11294.09</v>
+        <v>8446.375</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.61</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="19">
@@ -1308,39 +1310,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="G19" t="n">
-        <v>88</v>
+        <v>117.25</v>
       </c>
       <c r="H19" t="n">
-        <v>87.86</v>
+        <v>117.71</v>
       </c>
       <c r="I19" t="n">
-        <v>76.13</v>
+        <v>110.3325</v>
       </c>
       <c r="J19" t="n">
-        <v>34.1</v>
+        <v>49.045</v>
       </c>
       <c r="K19" t="n">
-        <v>128.32</v>
+        <v>144.385</v>
       </c>
       <c r="L19" t="n">
-        <v>10163.93</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-0.03</v>
-      </c>
+        <v>14332.9575</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1355,38 +1355,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>108</v>
+        <v>86.5</v>
       </c>
       <c r="H20" t="n">
-        <v>108.145</v>
+        <v>86.35249999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>92.55500000000001</v>
+        <v>79.22999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>41.75</v>
+        <v>32.8775</v>
       </c>
       <c r="K20" t="n">
-        <v>116.44</v>
+        <v>126.715</v>
       </c>
       <c r="L20" t="n">
-        <v>10874.43</v>
+        <v>8173.8525</v>
       </c>
       <c r="M20" t="n">
-        <v>-15.83</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1402,38 +1402,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>133</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>133.47</v>
+        <v>104.1283333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>114.35</v>
+        <v>97.08833333333332</v>
       </c>
       <c r="J21" t="n">
-        <v>55.72</v>
+        <v>42.29</v>
       </c>
       <c r="K21" t="n">
-        <v>154.91</v>
+        <v>140.3816666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>15440.16</v>
+        <v>11163.91166666667</v>
       </c>
       <c r="M21" t="n">
-        <v>8.08</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="22">
@@ -1449,38 +1449,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H22" t="n">
-        <v>78.47</v>
+        <v>87.86</v>
       </c>
       <c r="I22" t="n">
-        <v>67.06999999999999</v>
+        <v>76.13</v>
       </c>
       <c r="J22" t="n">
-        <v>29.08</v>
+        <v>34.1</v>
       </c>
       <c r="K22" t="n">
-        <v>146.41</v>
+        <v>128.32</v>
       </c>
       <c r="L22" t="n">
-        <v>7069.06</v>
+        <v>10163.93</v>
       </c>
       <c r="M22" t="n">
-        <v>5.7</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="23">
@@ -1496,38 +1496,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>33.66666666666666</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>109</v>
+        <v>111.1666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>109.66</v>
+        <v>111.39</v>
       </c>
       <c r="I23" t="n">
-        <v>96.08500000000001</v>
+        <v>95.57499999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>32.62</v>
+        <v>45.76666666666667</v>
       </c>
       <c r="K23" t="n">
-        <v>87.22</v>
+        <v>143.2483333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>4879.31</v>
+        <v>12417.29833333333</v>
       </c>
       <c r="M23" t="n">
-        <v>6.05</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="24">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1556,25 +1556,25 @@
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>110.5</v>
+        <v>120</v>
       </c>
       <c r="H24" t="n">
-        <v>111.005</v>
+        <v>120.39</v>
       </c>
       <c r="I24" t="n">
-        <v>104.805</v>
+        <v>119.05</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49</v>
+        <v>51.27</v>
       </c>
       <c r="K24" t="n">
-        <v>150.655</v>
+        <v>227.89</v>
       </c>
       <c r="L24" t="n">
-        <v>12885.505</v>
+        <v>16177.44</v>
       </c>
       <c r="M24" t="n">
-        <v>13.77</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="25">
@@ -1590,38 +1590,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>156</v>
+        <v>87.25</v>
       </c>
       <c r="H25" t="n">
-        <v>156.27</v>
+        <v>87.61</v>
       </c>
       <c r="I25" t="n">
-        <v>143.53</v>
+        <v>74.61499999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>61.66</v>
+        <v>34.7475</v>
       </c>
       <c r="K25" t="n">
-        <v>115.21</v>
+        <v>150.925</v>
       </c>
       <c r="L25" t="n">
-        <v>15174.66</v>
+        <v>9105.154999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>0.31</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="26">
@@ -1637,38 +1637,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>85</v>
+        <v>101.3333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>85.18000000000001</v>
+        <v>101.61</v>
       </c>
       <c r="I26" t="n">
-        <v>79.14</v>
+        <v>89.59499999999998</v>
       </c>
       <c r="J26" t="n">
-        <v>37.09</v>
+        <v>41.25333333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>197.67</v>
+        <v>172.0316666666667</v>
       </c>
       <c r="L26" t="n">
-        <v>10907.08</v>
+        <v>11889.515</v>
       </c>
       <c r="M26" t="n">
-        <v>14.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="27">
@@ -1684,38 +1684,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>30.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>21.33333333333333</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>106.8333333333333</v>
+        <v>109</v>
       </c>
       <c r="H27" t="n">
-        <v>107.1983333333333</v>
+        <v>109.66</v>
       </c>
       <c r="I27" t="n">
-        <v>96.3</v>
+        <v>96.08500000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>43.17833333333333</v>
+        <v>32.62</v>
       </c>
       <c r="K27" t="n">
-        <v>148.4216666666667</v>
+        <v>87.22</v>
       </c>
       <c r="L27" t="n">
-        <v>11844.40833333333</v>
+        <v>4879.31</v>
       </c>
       <c r="M27" t="n">
-        <v>6.760000000000001</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="28">
@@ -1731,38 +1731,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>101</v>
+        <v>86.33333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>101.615</v>
+        <v>86.48444444444446</v>
       </c>
       <c r="I28" t="n">
-        <v>89.88</v>
+        <v>80.03999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>38.855</v>
+        <v>34.67777777777778</v>
       </c>
       <c r="K28" t="n">
-        <v>124.995</v>
+        <v>147.71</v>
       </c>
       <c r="L28" t="n">
-        <v>9964.129999999999</v>
+        <v>9760.253333333334</v>
       </c>
       <c r="M28" t="n">
-        <v>8.68</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="29">
@@ -1778,38 +1778,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>105.5</v>
+        <v>110.6666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>106.14</v>
+        <v>110.9466666666667</v>
       </c>
       <c r="I29" t="n">
-        <v>96.08</v>
+        <v>96.92166666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>44.98</v>
+        <v>44.54166666666667</v>
       </c>
       <c r="K29" t="n">
-        <v>177.99</v>
+        <v>157.8883333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>12782.315</v>
+        <v>12553.55333333334</v>
       </c>
       <c r="M29" t="n">
-        <v>6.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30">
@@ -1825,38 +1825,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>30.33333333333334</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>83</v>
+        <v>102.5</v>
       </c>
       <c r="H30" t="n">
-        <v>83.16</v>
+        <v>102.8433333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06999999999999</v>
+        <v>93.39666666666666</v>
       </c>
       <c r="J30" t="n">
-        <v>29.64</v>
+        <v>43.62666666666667</v>
       </c>
       <c r="K30" t="n">
-        <v>88.15000000000001</v>
+        <v>185.075</v>
       </c>
       <c r="L30" t="n">
-        <v>6467.83</v>
+        <v>12659.00833333333</v>
       </c>
       <c r="M30" t="n">
-        <v>14.57</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="31">
@@ -1872,224 +1872,226 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>30.77777777777778</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>92</v>
+        <v>100.8333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>91.55</v>
+        <v>101.1244444444444</v>
       </c>
       <c r="I31" t="n">
-        <v>83.84</v>
+        <v>91.23277777777777</v>
       </c>
       <c r="J31" t="n">
-        <v>36.4</v>
+        <v>40.53444444444445</v>
       </c>
       <c r="K31" t="n">
-        <v>157.29</v>
+        <v>146.9594444444444</v>
       </c>
       <c r="L31" t="n">
-        <v>10504.11</v>
+        <v>11206.50166666667</v>
       </c>
       <c r="M31" t="n">
-        <v>29.27</v>
+        <v>6.760000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>109</v>
+        <v>90.5</v>
       </c>
       <c r="H32" t="n">
-        <v>109.49</v>
+        <v>90.825</v>
       </c>
       <c r="I32" t="n">
-        <v>94.40000000000001</v>
+        <v>81.15499999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>43.465</v>
+        <v>35.50333333333333</v>
       </c>
       <c r="K32" t="n">
-        <v>189.6</v>
+        <v>145.85</v>
       </c>
       <c r="L32" t="n">
-        <v>11780.58</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>9371.013333333334</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.68</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="G33" t="n">
-        <v>186.5</v>
+        <v>98</v>
       </c>
       <c r="H33" t="n">
-        <v>186.96</v>
+        <v>98.3425</v>
       </c>
       <c r="I33" t="n">
-        <v>171.87</v>
+        <v>87.11</v>
       </c>
       <c r="J33" t="n">
-        <v>86.43000000000001</v>
+        <v>40.26</v>
       </c>
       <c r="K33" t="n">
-        <v>200.74</v>
+        <v>160.225</v>
       </c>
       <c r="L33" t="n">
-        <v>26424.38</v>
+        <v>10962.225</v>
       </c>
       <c r="M33" t="n">
-        <v>-9.890000000000001</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="H34" t="n">
-        <v>159.63</v>
+        <v>83.16</v>
       </c>
       <c r="I34" t="n">
-        <v>133.14</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>70.09</v>
+        <v>29.64</v>
       </c>
       <c r="K34" t="n">
-        <v>153.54</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>17231.25</v>
+        <v>6467.83</v>
       </c>
       <c r="M34" t="n">
-        <v>0.38</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G35" t="n">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="H35" t="n">
-        <v>247.91</v>
+        <v>91.55</v>
       </c>
       <c r="I35" t="n">
-        <v>226.285</v>
+        <v>83.84</v>
       </c>
       <c r="J35" t="n">
-        <v>99.14750000000001</v>
+        <v>36.4</v>
       </c>
       <c r="K35" t="n">
-        <v>160.0625</v>
+        <v>157.29</v>
       </c>
       <c r="L35" t="n">
-        <v>26942.065</v>
+        <v>10504.11</v>
       </c>
       <c r="M35" t="n">
-        <v>3.66</v>
+        <v>29.27</v>
       </c>
     </row>
     <row r="36">
@@ -2105,39 +2107,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
-        <v>250</v>
+        <v>234.6666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>250.18</v>
+        <v>229.1033333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>234.76</v>
+        <v>217.9233333333333</v>
       </c>
       <c r="J36" t="n">
-        <v>81.47</v>
+        <v>81.705</v>
       </c>
       <c r="K36" t="n">
-        <v>92.98999999999999</v>
+        <v>103.1533333333334</v>
       </c>
       <c r="L36" t="n">
-        <v>17480.66</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.62</v>
-      </c>
+        <v>15387.10333333333</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2152,38 +2152,38 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>251</v>
+        <v>223.6666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>250.84</v>
+        <v>223.515</v>
       </c>
       <c r="I37" t="n">
-        <v>214.96</v>
+        <v>211.165</v>
       </c>
       <c r="J37" t="n">
-        <v>111.18</v>
+        <v>97.84499999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>151.64</v>
+        <v>184.6833333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>25300.9</v>
+        <v>28508.51833333333</v>
       </c>
       <c r="M37" t="n">
-        <v>-6.55</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -2199,38 +2199,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
-        <v>237.5</v>
+        <v>162.5</v>
       </c>
       <c r="H38" t="n">
-        <v>231.065</v>
+        <v>162.985</v>
       </c>
       <c r="I38" t="n">
-        <v>229.72</v>
+        <v>141.19</v>
       </c>
       <c r="J38" t="n">
-        <v>96.065</v>
+        <v>72.11500000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>90.995</v>
+        <v>166.71</v>
       </c>
       <c r="L38" t="n">
-        <v>22737.715</v>
+        <v>20267.945</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.57</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39">
@@ -2246,38 +2246,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>299</v>
+        <v>197.3333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>298.8</v>
+        <v>197.1666666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>282.37</v>
+        <v>186.6633333333333</v>
       </c>
       <c r="J39" t="n">
-        <v>81.89</v>
+        <v>76.62277777777778</v>
       </c>
       <c r="K39" t="n">
-        <v>44.95</v>
+        <v>143.735</v>
       </c>
       <c r="L39" t="n">
-        <v>11856.75</v>
+        <v>20080.44444444444</v>
       </c>
       <c r="M39" t="n">
-        <v>11.84</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="40">
@@ -2293,38 +2293,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>31.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>183</v>
+        <v>266.5</v>
       </c>
       <c r="H40" t="n">
-        <v>183.2166666666667</v>
+        <v>266.4400000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>160.0766666666667</v>
+        <v>248.67</v>
       </c>
       <c r="J40" t="n">
-        <v>75.92666666666666</v>
+        <v>98.14</v>
       </c>
       <c r="K40" t="n">
-        <v>154.68</v>
+        <v>126.2</v>
       </c>
       <c r="L40" t="n">
-        <v>20742.03333333333</v>
+        <v>24615.305</v>
       </c>
       <c r="M40" t="n">
-        <v>16.59</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="41">
@@ -2340,38 +2340,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G41" t="n">
-        <v>88</v>
+        <v>210.75</v>
       </c>
       <c r="H41" t="n">
-        <v>86.84999999999999</v>
+        <v>211.1</v>
       </c>
       <c r="I41" t="n">
-        <v>86.18000000000001</v>
+        <v>186.7925</v>
       </c>
       <c r="J41" t="n">
-        <v>39.85</v>
+        <v>88.77000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>195.87</v>
+        <v>128.35</v>
       </c>
       <c r="L41" t="n">
-        <v>12143.53</v>
+        <v>21090.4325</v>
       </c>
       <c r="M41" t="n">
-        <v>8.630000000000001</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="42">
@@ -2387,38 +2387,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F42" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G42" t="n">
-        <v>159.5</v>
+        <v>239.75</v>
       </c>
       <c r="H42" t="n">
-        <v>159.465</v>
+        <v>233.16</v>
       </c>
       <c r="I42" t="n">
-        <v>142.28</v>
+        <v>231.145</v>
       </c>
       <c r="J42" t="n">
-        <v>56.9175</v>
+        <v>99.375</v>
       </c>
       <c r="K42" t="n">
-        <v>134.085</v>
+        <v>107.4975</v>
       </c>
       <c r="L42" t="n">
-        <v>14765.0175</v>
+        <v>23530.425</v>
       </c>
       <c r="M42" t="n">
-        <v>17.73</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="43">
@@ -2434,38 +2434,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G43" t="n">
-        <v>312</v>
+        <v>227.5</v>
       </c>
       <c r="H43" t="n">
-        <v>312.89</v>
+        <v>227.37</v>
       </c>
       <c r="I43" t="n">
-        <v>312.89</v>
+        <v>213.62</v>
       </c>
       <c r="J43" t="n">
-        <v>88.61</v>
+        <v>72.38500000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>53.59</v>
+        <v>85.255</v>
       </c>
       <c r="L43" t="n">
-        <v>17102.59</v>
+        <v>13326.915</v>
       </c>
       <c r="M43" t="n">
-        <v>12.31</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="44">
@@ -2481,38 +2481,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="E44" t="n">
-        <v>31.5</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="F44" t="n">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="G44" t="n">
-        <v>226.25</v>
+        <v>176.8333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>226.1925</v>
+        <v>176.565</v>
       </c>
       <c r="I44" t="n">
-        <v>199.37</v>
+        <v>161.0266666666667</v>
       </c>
       <c r="J44" t="n">
-        <v>96.1825</v>
+        <v>74.49833333333333</v>
       </c>
       <c r="K44" t="n">
-        <v>161.8675</v>
+        <v>152.6733333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>25734.715</v>
+        <v>20898.15333333333</v>
       </c>
       <c r="M44" t="n">
-        <v>9.119999999999999</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="45">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2541,25 +2541,25 @@
         <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="H45" t="n">
-        <v>206.58</v>
+        <v>173.38</v>
       </c>
       <c r="I45" t="n">
-        <v>170.7</v>
+        <v>169.02</v>
       </c>
       <c r="J45" t="n">
-        <v>87.48</v>
+        <v>66.95</v>
       </c>
       <c r="K45" t="n">
-        <v>166.42</v>
+        <v>103.73</v>
       </c>
       <c r="L45" t="n">
-        <v>23805.73</v>
+        <v>15509.77</v>
       </c>
       <c r="M45" t="n">
-        <v>10.32</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="46">
@@ -2575,44 +2575,44 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E46" t="n">
         <v>30</v>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G46" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H46" t="n">
-        <v>181.09</v>
+        <v>188.2466666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>152.92</v>
+        <v>168.3516666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>71.815</v>
+        <v>72.02999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>150.605</v>
+        <v>127.3116666666667</v>
       </c>
       <c r="L46" t="n">
-        <v>19618.125</v>
+        <v>18544.84</v>
       </c>
       <c r="M46" t="n">
-        <v>8.1</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2622,44 +2622,44 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>30.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="F47" t="n">
-        <v>20.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="G47" t="n">
-        <v>206.5</v>
+        <v>128.5</v>
       </c>
       <c r="H47" t="n">
-        <v>207.025</v>
+        <v>127.935</v>
       </c>
       <c r="I47" t="n">
-        <v>181.8183333333334</v>
+        <v>125.085</v>
       </c>
       <c r="J47" t="n">
-        <v>78.845</v>
+        <v>55.22</v>
       </c>
       <c r="K47" t="n">
-        <v>118.5566666666667</v>
+        <v>157.735</v>
       </c>
       <c r="L47" t="n">
-        <v>17546.71</v>
+        <v>14573.82</v>
       </c>
       <c r="M47" t="n">
-        <v>5.900000000000001</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2669,44 +2669,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>41</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>226.5</v>
+        <v>158</v>
       </c>
       <c r="H48" t="n">
-        <v>216.81</v>
+        <v>157.9166666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>207.08</v>
+        <v>140.0116666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>88.78</v>
+        <v>62.57833333333333</v>
       </c>
       <c r="K48" t="n">
-        <v>110.855</v>
+        <v>143.5016666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>19578.365</v>
+        <v>16785.18333333333</v>
       </c>
       <c r="M48" t="n">
-        <v>7.78</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2716,44 +2716,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G49" t="n">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="H49" t="n">
-        <v>251.18</v>
+        <v>312.89</v>
       </c>
       <c r="I49" t="n">
-        <v>212.95</v>
+        <v>312.89</v>
       </c>
       <c r="J49" t="n">
-        <v>99.36</v>
+        <v>88.61</v>
       </c>
       <c r="K49" t="n">
-        <v>72.20999999999999</v>
+        <v>53.59</v>
       </c>
       <c r="L49" t="n">
-        <v>16373.61</v>
+        <v>17102.59</v>
       </c>
       <c r="M49" t="n">
-        <v>11.92</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2763,44 +2763,44 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>30.88888888888889</v>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G50" t="n">
-        <v>223</v>
+        <v>184.5555555555555</v>
       </c>
       <c r="H50" t="n">
-        <v>223.515</v>
+        <v>184.4405555555556</v>
       </c>
       <c r="I50" t="n">
-        <v>184.95</v>
+        <v>160.6922222222222</v>
       </c>
       <c r="J50" t="n">
-        <v>87.30500000000001</v>
+        <v>76.27833333333332</v>
       </c>
       <c r="K50" t="n">
-        <v>102.915</v>
+        <v>147.5355555555555</v>
       </c>
       <c r="L50" t="n">
-        <v>19200.59</v>
+        <v>19982.00555555556</v>
       </c>
       <c r="M50" t="n">
-        <v>4.04</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2810,44 +2810,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F51" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G51" t="n">
-        <v>276.5</v>
+        <v>245.5</v>
       </c>
       <c r="H51" t="n">
-        <v>276.5</v>
+        <v>245.815</v>
       </c>
       <c r="I51" t="n">
-        <v>271.81</v>
+        <v>220.495</v>
       </c>
       <c r="J51" t="n">
-        <v>89.075</v>
+        <v>105.715</v>
       </c>
       <c r="K51" t="n">
-        <v>68.86</v>
+        <v>155.915</v>
       </c>
       <c r="L51" t="n">
-        <v>16403.045</v>
+        <v>31104.705</v>
       </c>
       <c r="M51" t="n">
-        <v>4.04</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2857,38 +2857,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G52" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H52" t="n">
-        <v>169.69</v>
+        <v>181.09</v>
       </c>
       <c r="I52" t="n">
-        <v>150.24</v>
+        <v>152.92</v>
       </c>
       <c r="J52" t="n">
-        <v>63.34</v>
+        <v>71.815</v>
       </c>
       <c r="K52" t="n">
-        <v>96.90000000000001</v>
+        <v>150.605</v>
       </c>
       <c r="L52" t="n">
-        <v>13351.68</v>
+        <v>19618.125</v>
       </c>
       <c r="M52" t="n">
-        <v>12.95</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="53">
@@ -2904,39 +2904,37 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>26.5</v>
       </c>
       <c r="G53" t="n">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="H53" t="n">
-        <v>139.17</v>
+        <v>185.4525</v>
       </c>
       <c r="I53" t="n">
-        <v>122.4</v>
+        <v>175.395</v>
       </c>
       <c r="J53" t="n">
-        <v>56.36</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>124.24</v>
+        <v>97.8175</v>
       </c>
       <c r="L53" t="n">
-        <v>13350.31</v>
-      </c>
-      <c r="M53" t="n">
-        <v>13.32</v>
-      </c>
+        <v>16564.0525</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2951,38 +2949,38 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>41</v>
+        <v>29.11111111111111</v>
       </c>
       <c r="F54" t="n">
-        <v>31</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="G54" t="n">
-        <v>232.5</v>
+        <v>203.9444444444445</v>
       </c>
       <c r="H54" t="n">
-        <v>203.895</v>
+        <v>204.4172222222222</v>
       </c>
       <c r="I54" t="n">
-        <v>198.025</v>
+        <v>178.1294444444444</v>
       </c>
       <c r="J54" t="n">
-        <v>96.49000000000001</v>
+        <v>76.77166666666666</v>
       </c>
       <c r="K54" t="n">
-        <v>125.21</v>
+        <v>107.0888888888889</v>
       </c>
       <c r="L54" t="n">
-        <v>21851.71</v>
+        <v>16954.20111111111</v>
       </c>
       <c r="M54" t="n">
-        <v>9.24</v>
+        <v>5.900000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2998,38 +2996,38 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>30.33333333333333</v>
+        <v>41</v>
       </c>
       <c r="F55" t="n">
-        <v>20.33333333333333</v>
+        <v>31</v>
       </c>
       <c r="G55" t="n">
-        <v>200.5</v>
+        <v>226.5</v>
       </c>
       <c r="H55" t="n">
-        <v>200.82</v>
+        <v>216.81</v>
       </c>
       <c r="I55" t="n">
-        <v>165.1083333333333</v>
+        <v>207.08</v>
       </c>
       <c r="J55" t="n">
-        <v>78.7</v>
+        <v>88.78</v>
       </c>
       <c r="K55" t="n">
-        <v>116.1833333333333</v>
+        <v>110.855</v>
       </c>
       <c r="L55" t="n">
-        <v>18281.18833333334</v>
+        <v>19578.365</v>
       </c>
       <c r="M55" t="n">
-        <v>9.73</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="56">
@@ -3045,38 +3043,38 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>27.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F56" t="n">
-        <v>17.5</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G56" t="n">
-        <v>189</v>
+        <v>185.3333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>188.9775</v>
+        <v>185.6766666666666</v>
       </c>
       <c r="I56" t="n">
-        <v>164.245</v>
+        <v>168.2366666666667</v>
       </c>
       <c r="J56" t="n">
-        <v>75.315</v>
+        <v>72.68666666666667</v>
       </c>
       <c r="K56" t="n">
-        <v>106.2175</v>
+        <v>100.1866666666667</v>
       </c>
       <c r="L56" t="n">
-        <v>17052.76</v>
+        <v>14936.83666666667</v>
       </c>
       <c r="M56" t="n">
-        <v>13.5</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="57">
@@ -3092,7 +3090,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3105,25 +3103,25 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>180</v>
+        <v>191.8333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>180.08</v>
+        <v>192.2683333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>170.69</v>
+        <v>162.645</v>
       </c>
       <c r="J57" t="n">
-        <v>66.48</v>
+        <v>75.27666666666666</v>
       </c>
       <c r="K57" t="n">
-        <v>134.82</v>
+        <v>105.4383333333333</v>
       </c>
       <c r="L57" t="n">
-        <v>16123.5</v>
+        <v>16866.93166666667</v>
       </c>
       <c r="M57" t="n">
-        <v>13.32</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="58">
@@ -3139,38 +3137,38 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>63.5</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>53.5</v>
       </c>
       <c r="G58" t="n">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="H58" t="n">
-        <v>194.84</v>
+        <v>170.275</v>
       </c>
       <c r="I58" t="n">
-        <v>179.75</v>
+        <v>167.0075</v>
       </c>
       <c r="J58" t="n">
-        <v>81.68000000000001</v>
+        <v>72.215</v>
       </c>
       <c r="K58" t="n">
-        <v>157.37</v>
+        <v>93.22749999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>20143.85</v>
+        <v>12832.9725</v>
       </c>
       <c r="M58" t="n">
-        <v>13.83</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="59">
@@ -3186,7 +3184,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3199,25 +3197,25 @@
         <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>188</v>
+        <v>276.5</v>
       </c>
       <c r="H59" t="n">
-        <v>188.47</v>
+        <v>276.5</v>
       </c>
       <c r="I59" t="n">
-        <v>174.05</v>
+        <v>271.81</v>
       </c>
       <c r="J59" t="n">
-        <v>74.48999999999999</v>
+        <v>89.075</v>
       </c>
       <c r="K59" t="n">
-        <v>111.95</v>
+        <v>68.86</v>
       </c>
       <c r="L59" t="n">
-        <v>17677.48</v>
+        <v>16403.045</v>
       </c>
       <c r="M59" t="n">
-        <v>9.91</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="60">
@@ -3233,38 +3231,38 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F60" t="n">
         <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>124.5</v>
+        <v>175</v>
       </c>
       <c r="H60" t="n">
-        <v>124.42</v>
+        <v>175.055</v>
       </c>
       <c r="I60" t="n">
-        <v>108.325</v>
+        <v>156.95</v>
       </c>
       <c r="J60" t="n">
-        <v>50.975</v>
+        <v>66.495</v>
       </c>
       <c r="K60" t="n">
-        <v>120.545</v>
+        <v>103.04</v>
       </c>
       <c r="L60" t="n">
-        <v>11961.16</v>
+        <v>15054.31</v>
       </c>
       <c r="M60" t="n">
-        <v>11.26</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="61">
@@ -3280,44 +3278,44 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G61" t="n">
-        <v>173</v>
+        <v>128.5</v>
       </c>
       <c r="H61" t="n">
-        <v>173.21</v>
+        <v>128.945</v>
       </c>
       <c r="I61" t="n">
-        <v>153.085</v>
+        <v>111.675</v>
       </c>
       <c r="J61" t="n">
-        <v>66.98</v>
+        <v>52.275</v>
       </c>
       <c r="K61" t="n">
-        <v>113.57</v>
+        <v>120.295</v>
       </c>
       <c r="L61" t="n">
-        <v>16331.72</v>
+        <v>12131.555</v>
       </c>
       <c r="M61" t="n">
-        <v>16.11</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3327,42 +3325,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>144</v>
+        <v>230.1111111111111</v>
       </c>
       <c r="H62" t="n">
-        <v>144.54</v>
+        <v>211.3111111111111</v>
       </c>
       <c r="I62" t="n">
-        <v>135.82</v>
+        <v>189.6233333333333</v>
       </c>
       <c r="J62" t="n">
-        <v>42.67</v>
+        <v>94.43555555555555</v>
       </c>
       <c r="K62" t="n">
-        <v>50.41</v>
+        <v>116.6711111111111</v>
       </c>
       <c r="L62" t="n">
-        <v>9416.059999999999</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>21445.85555555555</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9.24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3372,44 +3372,44 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="G63" t="n">
-        <v>138</v>
+        <v>195.1666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>138.675</v>
+        <v>195.5116666666667</v>
       </c>
       <c r="I63" t="n">
-        <v>133.145</v>
+        <v>163.4316666666666</v>
       </c>
       <c r="J63" t="n">
-        <v>50.645</v>
+        <v>75.80166666666666</v>
       </c>
       <c r="K63" t="n">
-        <v>89.39500000000001</v>
+        <v>111.7033333333333</v>
       </c>
       <c r="L63" t="n">
-        <v>10816.65</v>
+        <v>17495.67666666667</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.18</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3419,44 +3419,44 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="G64" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H64" t="n">
-        <v>149.9</v>
+        <v>188.9775</v>
       </c>
       <c r="I64" t="n">
-        <v>127.44</v>
+        <v>164.245</v>
       </c>
       <c r="J64" t="n">
-        <v>48.8</v>
+        <v>75.315</v>
       </c>
       <c r="K64" t="n">
-        <v>78.48</v>
+        <v>106.2175</v>
       </c>
       <c r="L64" t="n">
-        <v>9582.67</v>
+        <v>17052.76</v>
       </c>
       <c r="M64" t="n">
-        <v>10.85</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3466,44 +3466,44 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F65" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="H65" t="n">
-        <v>97.255</v>
+        <v>180.08</v>
       </c>
       <c r="I65" t="n">
-        <v>91.38000000000001</v>
+        <v>170.69</v>
       </c>
       <c r="J65" t="n">
-        <v>30.225</v>
+        <v>66.48</v>
       </c>
       <c r="K65" t="n">
-        <v>124.99</v>
+        <v>134.82</v>
       </c>
       <c r="L65" t="n">
-        <v>5035.885</v>
+        <v>16123.5</v>
       </c>
       <c r="M65" t="n">
-        <v>10.3</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3513,44 +3513,44 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="G66" t="n">
-        <v>163</v>
+        <v>175.5</v>
       </c>
       <c r="H66" t="n">
-        <v>163.32</v>
+        <v>175.3916666666667</v>
       </c>
       <c r="I66" t="n">
-        <v>144.2</v>
+        <v>169.2466666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>47.02</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>56.96</v>
+        <v>116.6333333333333</v>
       </c>
       <c r="L66" t="n">
-        <v>8113.97</v>
+        <v>15266.85</v>
       </c>
       <c r="M66" t="n">
-        <v>-3.31</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3560,44 +3560,44 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="n">
-        <v>171</v>
+        <v>161.5</v>
       </c>
       <c r="H67" t="n">
-        <v>171.37</v>
+        <v>161.64</v>
       </c>
       <c r="I67" t="n">
-        <v>150.58</v>
+        <v>151.415</v>
       </c>
       <c r="J67" t="n">
-        <v>48.31</v>
+        <v>62.185</v>
       </c>
       <c r="K67" t="n">
-        <v>31.06</v>
+        <v>116.04</v>
       </c>
       <c r="L67" t="n">
-        <v>6965.42</v>
+        <v>14173.13</v>
       </c>
       <c r="M67" t="n">
-        <v>1.84</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3607,44 +3607,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G68" t="n">
-        <v>136</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>135.82</v>
+        <v>182.6566666666667</v>
       </c>
       <c r="I68" t="n">
-        <v>127.1</v>
+        <v>167.2316666666667</v>
       </c>
       <c r="J68" t="n">
-        <v>47</v>
+        <v>78.39166666666667</v>
       </c>
       <c r="K68" t="n">
-        <v>67.93000000000001</v>
+        <v>118.3983333333333</v>
       </c>
       <c r="L68" t="n">
-        <v>9582.290000000001</v>
+        <v>17264.34</v>
       </c>
       <c r="M68" t="n">
-        <v>-3.2</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3654,44 +3654,44 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>29.33333333333334</v>
       </c>
       <c r="F69" t="n">
-        <v>14</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="G69" t="n">
-        <v>126.5</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>126.935</v>
+        <v>142.08</v>
       </c>
       <c r="I69" t="n">
-        <v>107.815</v>
+        <v>132.355</v>
       </c>
       <c r="J69" t="n">
-        <v>42.695</v>
+        <v>56.35666666666667</v>
       </c>
       <c r="K69" t="n">
-        <v>95.13499999999999</v>
+        <v>125.4433333333333</v>
       </c>
       <c r="L69" t="n">
-        <v>9194.15</v>
+        <v>13632.385</v>
       </c>
       <c r="M69" t="n">
-        <v>8.59</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3701,38 +3701,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F70" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n">
-        <v>162.5</v>
+        <v>179</v>
       </c>
       <c r="H70" t="n">
-        <v>162.815</v>
+        <v>179.08</v>
       </c>
       <c r="I70" t="n">
-        <v>159.795</v>
+        <v>151.58</v>
       </c>
       <c r="J70" t="n">
-        <v>50.265</v>
+        <v>59.17</v>
       </c>
       <c r="K70" t="n">
-        <v>43.88500000000001</v>
+        <v>63.68</v>
       </c>
       <c r="L70" t="n">
-        <v>9090.959999999999</v>
+        <v>12669.44</v>
       </c>
       <c r="M70" t="n">
-        <v>12.53</v>
+        <v>30.27</v>
       </c>
     </row>
     <row r="71">
@@ -3748,39 +3748,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E71" t="n">
-        <v>52</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F71" t="n">
-        <v>42</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="G71" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H71" t="n">
-        <v>139.84</v>
+        <v>151.4666666666667</v>
       </c>
       <c r="I71" t="n">
-        <v>142.86</v>
+        <v>140.4033333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>56.84</v>
+        <v>51.24</v>
       </c>
       <c r="K71" t="n">
-        <v>96.06</v>
+        <v>71.05</v>
       </c>
       <c r="L71" t="n">
-        <v>10449.78</v>
-      </c>
-      <c r="M71" t="n">
-        <v>11.93</v>
-      </c>
+        <v>10382.12</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3795,38 +3793,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G72" t="n">
-        <v>99</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>99.26499999999999</v>
+        <v>156.95</v>
       </c>
       <c r="I72" t="n">
-        <v>88.36499999999999</v>
+        <v>151.14</v>
       </c>
       <c r="J72" t="n">
-        <v>34.915</v>
+        <v>56.58333333333334</v>
       </c>
       <c r="K72" t="n">
-        <v>101.885</v>
+        <v>78.88333333333334</v>
       </c>
       <c r="L72" t="n">
-        <v>8469.165000000001</v>
+        <v>11564.81333333333</v>
       </c>
       <c r="M72" t="n">
-        <v>21.91</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="73">
@@ -3842,38 +3840,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>33.5</v>
+        <v>27</v>
       </c>
       <c r="F73" t="n">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="G73" t="n">
-        <v>138</v>
+        <v>154.6666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>134.8925</v>
+        <v>154.875</v>
       </c>
       <c r="I73" t="n">
-        <v>131.1225</v>
+        <v>141.8016666666667</v>
       </c>
       <c r="J73" t="n">
-        <v>47.8525</v>
+        <v>52.54999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>53.84</v>
+        <v>83.79833333333333</v>
       </c>
       <c r="L73" t="n">
-        <v>8906.385</v>
+        <v>10639.72</v>
       </c>
       <c r="M73" t="n">
-        <v>7.75</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="74">
@@ -3889,38 +3887,38 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F74" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G74" t="n">
-        <v>138</v>
+        <v>93.75</v>
       </c>
       <c r="H74" t="n">
-        <v>138.16</v>
+        <v>91.9725</v>
       </c>
       <c r="I74" t="n">
-        <v>120.73</v>
+        <v>87.02000000000001</v>
       </c>
       <c r="J74" t="n">
-        <v>39.82</v>
+        <v>29.675</v>
       </c>
       <c r="K74" t="n">
-        <v>47.29</v>
+        <v>131.0175</v>
       </c>
       <c r="L74" t="n">
-        <v>8078.89</v>
+        <v>5769.5625</v>
       </c>
       <c r="M74" t="n">
-        <v>12.23</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="75">
@@ -3936,38 +3934,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F75" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>141.6666666666667</v>
+        <v>163</v>
       </c>
       <c r="H75" t="n">
-        <v>142.1883333333333</v>
+        <v>163.32</v>
       </c>
       <c r="I75" t="n">
-        <v>130.2833333333334</v>
+        <v>144.2</v>
       </c>
       <c r="J75" t="n">
-        <v>42.64333333333333</v>
+        <v>47.02</v>
       </c>
       <c r="K75" t="n">
-        <v>63.81666666666666</v>
+        <v>56.96</v>
       </c>
       <c r="L75" t="n">
-        <v>7850.111666666666</v>
+        <v>8113.97</v>
       </c>
       <c r="M75" t="n">
-        <v>9.33</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="76">
@@ -3983,38 +3981,38 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G76" t="n">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="H76" t="n">
-        <v>112.68</v>
+        <v>156.11</v>
       </c>
       <c r="I76" t="n">
-        <v>101.61</v>
+        <v>139.01</v>
       </c>
       <c r="J76" t="n">
-        <v>41.45</v>
+        <v>52.765</v>
       </c>
       <c r="K76" t="n">
-        <v>93.56999999999999</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>10284.91</v>
+        <v>9928.105</v>
       </c>
       <c r="M76" t="n">
-        <v>3.63</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="77">
@@ -4030,38 +4028,38 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G77" t="n">
-        <v>121</v>
+        <v>134.25</v>
       </c>
       <c r="H77" t="n">
-        <v>121.06</v>
+        <v>134.225</v>
       </c>
       <c r="I77" t="n">
-        <v>111</v>
+        <v>128.525</v>
       </c>
       <c r="J77" t="n">
-        <v>35.93</v>
+        <v>49.08</v>
       </c>
       <c r="K77" t="n">
-        <v>51.24</v>
+        <v>88.735</v>
       </c>
       <c r="L77" t="n">
-        <v>6213.36</v>
+        <v>10232.24</v>
       </c>
       <c r="M77" t="n">
-        <v>13.09</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="78">
@@ -4077,506 +4075,508 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>30.66666666666667</v>
+        <v>27</v>
       </c>
       <c r="F78" t="n">
-        <v>22.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="G78" t="n">
-        <v>116.6666666666667</v>
+        <v>128.8333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>116.8166666666667</v>
+        <v>129.2525</v>
       </c>
       <c r="I78" t="n">
-        <v>100.9466666666667</v>
+        <v>113.0691666666667</v>
       </c>
       <c r="J78" t="n">
-        <v>36.00333333333333</v>
+        <v>44.46083333333333</v>
       </c>
       <c r="K78" t="n">
-        <v>76.82333333333334</v>
+        <v>89.54749999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>7018.72</v>
+        <v>8896.995833333334</v>
       </c>
       <c r="M78" t="n">
-        <v>31.79</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G79" t="n">
-        <v>102</v>
+        <v>150.1666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>102.62</v>
+        <v>150.4066666666667</v>
       </c>
       <c r="I79" t="n">
-        <v>90.21000000000001</v>
+        <v>145.43</v>
       </c>
       <c r="J79" t="n">
-        <v>42.11</v>
+        <v>50.14166666666667</v>
       </c>
       <c r="K79" t="n">
-        <v>184.2</v>
+        <v>61.63166666666667</v>
       </c>
       <c r="L79" t="n">
-        <v>11440.56</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>9340.543333333333</v>
+      </c>
+      <c r="M79" t="n">
+        <v>12.53</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E80" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G80" t="n">
-        <v>119</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>119.22</v>
+        <v>142.1866666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>110.335</v>
+        <v>139.6166666666667</v>
       </c>
       <c r="J80" t="n">
-        <v>48.44</v>
+        <v>50.64333333333334</v>
       </c>
       <c r="K80" t="n">
-        <v>166.095</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="L80" t="n">
-        <v>11844.96</v>
+        <v>9617.110000000001</v>
       </c>
       <c r="M80" t="n">
-        <v>3.72</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F81" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="G81" t="n">
-        <v>146</v>
+        <v>112.5</v>
       </c>
       <c r="H81" t="n">
-        <v>146.55</v>
+        <v>112.6775</v>
       </c>
       <c r="I81" t="n">
-        <v>114.02</v>
+        <v>102.7</v>
       </c>
       <c r="J81" t="n">
-        <v>60.73</v>
+        <v>40.7925</v>
       </c>
       <c r="K81" t="n">
-        <v>105.68</v>
+        <v>110.2975</v>
       </c>
       <c r="L81" t="n">
-        <v>15117.76</v>
+        <v>9980.157500000001</v>
       </c>
       <c r="M81" t="n">
-        <v>10.11</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>29</v>
+        <v>33.5</v>
       </c>
       <c r="F82" t="n">
-        <v>19</v>
+        <v>22.5</v>
       </c>
       <c r="G82" t="n">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H82" t="n">
-        <v>112.2575</v>
+        <v>134.8925</v>
       </c>
       <c r="I82" t="n">
-        <v>96.75</v>
+        <v>131.1225</v>
       </c>
       <c r="J82" t="n">
-        <v>45.1425</v>
+        <v>47.8525</v>
       </c>
       <c r="K82" t="n">
-        <v>135.605</v>
+        <v>53.84</v>
       </c>
       <c r="L82" t="n">
-        <v>11089.5</v>
+        <v>8906.385</v>
       </c>
       <c r="M82" t="n">
-        <v>1.33</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>157</v>
+        <v>134.25</v>
       </c>
       <c r="H83" t="n">
-        <v>157.45</v>
+        <v>134.5625</v>
       </c>
       <c r="I83" t="n">
-        <v>128.11</v>
+        <v>126.5975</v>
       </c>
       <c r="J83" t="n">
-        <v>72.19499999999999</v>
+        <v>51.2825</v>
       </c>
       <c r="K83" t="n">
-        <v>160.84</v>
+        <v>109.705</v>
       </c>
       <c r="L83" t="n">
-        <v>19651.475</v>
+        <v>12058.7875</v>
       </c>
       <c r="M83" t="n">
-        <v>5.65</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>28</v>
+        <v>25.5</v>
       </c>
       <c r="F84" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="G84" t="n">
-        <v>116</v>
+        <v>144.25</v>
       </c>
       <c r="H84" t="n">
-        <v>116.03</v>
+        <v>144.37</v>
       </c>
       <c r="I84" t="n">
-        <v>97.25</v>
+        <v>132.635</v>
       </c>
       <c r="J84" t="n">
-        <v>42.11</v>
+        <v>43.835</v>
       </c>
       <c r="K84" t="n">
-        <v>90.12</v>
+        <v>51.8425</v>
       </c>
       <c r="L84" t="n">
-        <v>8658.24</v>
+        <v>7763.9375</v>
       </c>
       <c r="M84" t="n">
-        <v>7.72</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>27.33333333333334</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>16.33333333333334</v>
       </c>
       <c r="G85" t="n">
-        <v>148</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>148.23</v>
+        <v>149.2316666666667</v>
       </c>
       <c r="I85" t="n">
-        <v>139.18</v>
+        <v>136.8233333333334</v>
       </c>
       <c r="J85" t="n">
-        <v>57.92</v>
+        <v>43.72333333333333</v>
       </c>
       <c r="K85" t="n">
-        <v>104.72</v>
+        <v>51.14666666666666</v>
       </c>
       <c r="L85" t="n">
-        <v>12618.77</v>
+        <v>7156.98</v>
       </c>
       <c r="M85" t="n">
-        <v>4.58</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>11</v>
       </c>
       <c r="E86" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F86" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H86" t="n">
-        <v>124.245</v>
+        <v>131.63</v>
       </c>
       <c r="I86" t="n">
-        <v>108.99</v>
+        <v>125.925</v>
       </c>
       <c r="J86" t="n">
-        <v>48.25</v>
+        <v>41.735</v>
       </c>
       <c r="K86" t="n">
-        <v>133.645</v>
+        <v>82.095</v>
       </c>
       <c r="L86" t="n">
-        <v>12250.94</v>
+        <v>9414.895</v>
       </c>
       <c r="M86" t="n">
-        <v>14.05</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G87" t="n">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="H87" t="n">
-        <v>153.93</v>
+        <v>119.385</v>
       </c>
       <c r="I87" t="n">
-        <v>140.85</v>
+        <v>106.64</v>
       </c>
       <c r="J87" t="n">
-        <v>61.1</v>
+        <v>41.355</v>
       </c>
       <c r="K87" t="n">
-        <v>117.26</v>
+        <v>102.785</v>
       </c>
       <c r="L87" t="n">
-        <v>15011.63</v>
+        <v>8944.5</v>
       </c>
       <c r="M87" t="n">
-        <v>15.16</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>41</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="G88" t="n">
-        <v>163.5</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>141.69</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="I88" t="n">
-        <v>156.28</v>
+        <v>100.9466666666667</v>
       </c>
       <c r="J88" t="n">
-        <v>65.61500000000001</v>
+        <v>36.00333333333333</v>
       </c>
       <c r="K88" t="n">
-        <v>124.735</v>
+        <v>76.82333333333334</v>
       </c>
       <c r="L88" t="n">
-        <v>15814.995</v>
+        <v>7018.72</v>
       </c>
       <c r="M88" t="n">
-        <v>11.44</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="89">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4605,26 +4605,24 @@
         <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>62</v>
+        <v>122.5</v>
       </c>
       <c r="H89" t="n">
-        <v>62.38</v>
+        <v>122.74</v>
       </c>
       <c r="I89" t="n">
-        <v>52.32</v>
+        <v>113.685</v>
       </c>
       <c r="J89" t="n">
-        <v>23.96</v>
+        <v>54.49</v>
       </c>
       <c r="K89" t="n">
-        <v>142.12</v>
+        <v>171.82</v>
       </c>
       <c r="L89" t="n">
-        <v>6040.1</v>
-      </c>
-      <c r="M89" t="n">
-        <v>17.93</v>
-      </c>
+        <v>15374.02</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4639,7 +4637,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -4652,25 +4650,25 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="H90" t="n">
-        <v>148.225</v>
+        <v>119.3025</v>
       </c>
       <c r="I90" t="n">
-        <v>135.485</v>
+        <v>110.1675</v>
       </c>
       <c r="J90" t="n">
-        <v>57.32</v>
+        <v>48.02</v>
       </c>
       <c r="K90" t="n">
-        <v>114.26</v>
+        <v>164.1225</v>
       </c>
       <c r="L90" t="n">
-        <v>13788.32</v>
+        <v>11746.16</v>
       </c>
       <c r="M90" t="n">
-        <v>6.01</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="91">
@@ -4686,38 +4684,38 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>119</v>
+        <v>119.5</v>
       </c>
       <c r="H91" t="n">
-        <v>119.5</v>
+        <v>120.055</v>
       </c>
       <c r="I91" t="n">
-        <v>112.12</v>
+        <v>101.44</v>
       </c>
       <c r="J91" t="n">
-        <v>45.95</v>
+        <v>49.28</v>
       </c>
       <c r="K91" t="n">
-        <v>120.9933333333333</v>
+        <v>131.915</v>
       </c>
       <c r="L91" t="n">
-        <v>11418.41</v>
+        <v>12645.93</v>
       </c>
       <c r="M91" t="n">
-        <v>14.99</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="92">
@@ -4733,38 +4731,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>30.16666666666666</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>20.16666666666666</v>
       </c>
       <c r="G92" t="n">
-        <v>138.5</v>
+        <v>112.7083333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>138.835</v>
+        <v>113.0829166666667</v>
       </c>
       <c r="I92" t="n">
-        <v>119.725</v>
+        <v>100.75875</v>
       </c>
       <c r="J92" t="n">
-        <v>55.27</v>
+        <v>45.04708333333333</v>
       </c>
       <c r="K92" t="n">
-        <v>116.775</v>
+        <v>143.715</v>
       </c>
       <c r="L92" t="n">
-        <v>13358.89</v>
+        <v>10998.57041666667</v>
       </c>
       <c r="M92" t="n">
-        <v>12.23</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="93">
@@ -4780,38 +4778,38 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="G93" t="n">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="H93" t="n">
-        <v>95.06999999999999</v>
+        <v>138.42</v>
       </c>
       <c r="I93" t="n">
-        <v>85.845</v>
+        <v>113.52</v>
       </c>
       <c r="J93" t="n">
-        <v>35.47</v>
+        <v>57.8625</v>
       </c>
       <c r="K93" t="n">
-        <v>121.675</v>
+        <v>124.925</v>
       </c>
       <c r="L93" t="n">
-        <v>8281.994999999999</v>
+        <v>14511.0125</v>
       </c>
       <c r="M93" t="n">
-        <v>20.7</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="94">
@@ -4827,38 +4825,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H94" t="n">
-        <v>96.92</v>
+        <v>116.03</v>
       </c>
       <c r="I94" t="n">
-        <v>84.51000000000001</v>
+        <v>97.25</v>
       </c>
       <c r="J94" t="n">
-        <v>32.99</v>
+        <v>42.11</v>
       </c>
       <c r="K94" t="n">
-        <v>98.56999999999999</v>
+        <v>90.12</v>
       </c>
       <c r="L94" t="n">
-        <v>8301.34</v>
+        <v>8658.24</v>
       </c>
       <c r="M94" t="n">
-        <v>15.32</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="95">
@@ -4874,37 +4872,554 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>gap_duration_8</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>30</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>149.735</v>
+      </c>
+      <c r="I95" t="n">
+        <v>144.375</v>
+      </c>
+      <c r="J95" t="n">
+        <v>62.58</v>
+      </c>
+      <c r="K95" t="n">
+        <v>133.075</v>
+      </c>
+      <c r="L95" t="n">
+        <v>15829.625</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>30</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21</v>
+      </c>
+      <c r="G96" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="H96" t="n">
+        <v>111.8375</v>
+      </c>
+      <c r="I96" t="n">
+        <v>95.745</v>
+      </c>
+      <c r="J96" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="K96" t="n">
+        <v>155.95</v>
+      </c>
+      <c r="L96" t="n">
+        <v>11979.9025</v>
+      </c>
+      <c r="M96" t="n">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>30</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="H97" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="I97" t="n">
+        <v>127.9425</v>
+      </c>
+      <c r="J97" t="n">
+        <v>54.5425</v>
+      </c>
+      <c r="K97" t="n">
+        <v>124.7325</v>
+      </c>
+      <c r="L97" t="n">
+        <v>13401.5325</v>
+      </c>
+      <c r="M97" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>offset_PPI_14</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="E98" t="n">
+        <v>30</v>
+      </c>
+      <c r="F98" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="G98" t="n">
+        <v>133</v>
+      </c>
+      <c r="H98" t="n">
+        <v>133.36</v>
+      </c>
+      <c r="I98" t="n">
+        <v>116.1466666666667</v>
+      </c>
+      <c r="J98" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="K98" t="n">
+        <v>125.9066666666667</v>
+      </c>
+      <c r="L98" t="n">
+        <v>13062.84333333333</v>
+      </c>
+      <c r="M98" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>offset_PPI_16</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>41</v>
+      </c>
+      <c r="F99" t="n">
+        <v>31</v>
+      </c>
+      <c r="G99" t="n">
+        <v>166.75</v>
+      </c>
+      <c r="H99" t="n">
+        <v>144.96</v>
+      </c>
+      <c r="I99" t="n">
+        <v>159.045</v>
+      </c>
+      <c r="J99" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="K99" t="n">
+        <v>126.3325</v>
+      </c>
+      <c r="L99" t="n">
+        <v>16125.215</v>
+      </c>
+      <c r="M99" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>offset_PPI_18</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>31</v>
+      </c>
+      <c r="F100" t="n">
+        <v>21</v>
+      </c>
+      <c r="G100" t="n">
+        <v>101</v>
+      </c>
+      <c r="H100" t="n">
+        <v>101.11</v>
+      </c>
+      <c r="I100" t="n">
+        <v>83.34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="K100" t="n">
+        <v>160.06</v>
+      </c>
+      <c r="L100" t="n">
+        <v>11963.745</v>
+      </c>
+      <c r="M100" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>offset_PPI_20</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="E101" t="n">
+        <v>30</v>
+      </c>
+      <c r="F101" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="G101" t="n">
+        <v>124.6666666666667</v>
+      </c>
+      <c r="H101" t="n">
+        <v>125.1433333333333</v>
+      </c>
+      <c r="I101" t="n">
+        <v>110.1083333333333</v>
+      </c>
+      <c r="J101" t="n">
+        <v>51.21833333333333</v>
+      </c>
+      <c r="K101" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>13327.58333333333</v>
+      </c>
+      <c r="M101" t="n">
+        <v>6.010000000000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>offset_PPI_4</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>30</v>
+      </c>
+      <c r="F102" t="n">
+        <v>20</v>
+      </c>
+      <c r="G102" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
+        <v>118.6616666666667</v>
+      </c>
+      <c r="I102" t="n">
+        <v>110.0533333333333</v>
+      </c>
+      <c r="J102" t="n">
+        <v>46.065</v>
+      </c>
+      <c r="K102" t="n">
+        <v>125.9083333333333</v>
+      </c>
+      <c r="L102" t="n">
+        <v>11452.5</v>
+      </c>
+      <c r="M102" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>offset_PPI_50</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>30</v>
+      </c>
+      <c r="F103" t="n">
+        <v>20</v>
+      </c>
+      <c r="G103" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>138.835</v>
+      </c>
+      <c r="I103" t="n">
+        <v>119.725</v>
+      </c>
+      <c r="J103" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="K103" t="n">
+        <v>116.775</v>
+      </c>
+      <c r="L103" t="n">
+        <v>13358.89</v>
+      </c>
+      <c r="M103" t="n">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>offset_PPI_6</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>30</v>
+      </c>
+      <c r="F104" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>96</v>
+      </c>
+      <c r="H104" t="n">
+        <v>96.16249999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="J104" t="n">
+        <v>36.1375</v>
+      </c>
+      <c r="K104" t="n">
+        <v>135.3675</v>
+      </c>
+      <c r="L104" t="n">
+        <v>8593.555</v>
+      </c>
+      <c r="M104" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>offset_PPI_8</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="E105" t="n">
+        <v>30</v>
+      </c>
+      <c r="F105" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="G105" t="n">
+        <v>95.33333333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>95.91000000000001</v>
+      </c>
+      <c r="I105" t="n">
+        <v>81.37666666666668</v>
+      </c>
+      <c r="J105" t="n">
+        <v>34.18333333333334</v>
+      </c>
+      <c r="K105" t="n">
+        <v>121.2433333333333</v>
+      </c>
+      <c r="L105" t="n">
+        <v>8232.433333333332</v>
+      </c>
+      <c r="M105" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>tone_in_noise</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>12</v>
-      </c>
-      <c r="E95" t="n">
-        <v>24</v>
-      </c>
-      <c r="F95" t="n">
-        <v>12</v>
-      </c>
-      <c r="G95" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="H95" t="n">
-        <v>59.355</v>
-      </c>
-      <c r="I95" t="n">
-        <v>53.31999999999999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>21.765</v>
-      </c>
-      <c r="K95" t="n">
-        <v>116.425</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5565.235</v>
-      </c>
-      <c r="M95" t="n">
+      <c r="D106" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>27</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="H106" t="n">
+        <v>71.5975</v>
+      </c>
+      <c r="I106" t="n">
+        <v>65.72999999999999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>25.8225</v>
+      </c>
+      <c r="K106" t="n">
+        <v>117.6975</v>
+      </c>
+      <c r="L106" t="n">
+        <v>6068.747499999999</v>
+      </c>
+      <c r="M106" t="n">
         <v>36.17</v>
       </c>
     </row>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,7 +538,6 @@
       <c r="L2" t="n">
         <v>9942.146666666666</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,9 +582,6 @@
       <c r="L3" t="n">
         <v>10303.7175</v>
       </c>
-      <c r="M3" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -635,9 +626,6 @@
       <c r="L4" t="n">
         <v>10739.52166666667</v>
       </c>
-      <c r="M4" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,9 +670,6 @@
       <c r="L5" t="n">
         <v>10516.315</v>
       </c>
-      <c r="M5" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -729,9 +714,6 @@
       <c r="L6" t="n">
         <v>7892.785</v>
       </c>
-      <c r="M6" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -776,9 +758,6 @@
       <c r="L7" t="n">
         <v>9522.360000000001</v>
       </c>
-      <c r="M7" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,9 +802,6 @@
       <c r="L8" t="n">
         <v>7153.635</v>
       </c>
-      <c r="M8" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -870,9 +846,6 @@
       <c r="L9" t="n">
         <v>6927.305</v>
       </c>
-      <c r="M9" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -917,9 +890,6 @@
       <c r="L10" t="n">
         <v>7373.81</v>
       </c>
-      <c r="M10" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,9 +934,6 @@
       <c r="L11" t="n">
         <v>6414.016666666667</v>
       </c>
-      <c r="M11" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1011,9 +978,6 @@
       <c r="L12" t="n">
         <v>7587.688333333333</v>
       </c>
-      <c r="M12" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1058,9 +1022,6 @@
       <c r="L13" t="n">
         <v>8254.99</v>
       </c>
-      <c r="M13" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1105,9 +1066,6 @@
       <c r="L14" t="n">
         <v>13312.44</v>
       </c>
-      <c r="M14" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1152,9 +1110,6 @@
       <c r="L15" t="n">
         <v>10158.99666666667</v>
       </c>
-      <c r="M15" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1199,9 +1154,6 @@
       <c r="L16" t="n">
         <v>6601.772499999999</v>
       </c>
-      <c r="M16" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,9 +1198,6 @@
       <c r="L17" t="n">
         <v>5662.575000000001</v>
       </c>
-      <c r="M17" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1293,9 +1242,6 @@
       <c r="L18" t="n">
         <v>8446.375</v>
       </c>
-      <c r="M18" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1340,7 +1286,6 @@
       <c r="L19" t="n">
         <v>14332.9575</v>
       </c>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1385,9 +1330,6 @@
       <c r="L20" t="n">
         <v>8173.8525</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1432,9 +1374,6 @@
       <c r="L21" t="n">
         <v>11163.91166666667</v>
       </c>
-      <c r="M21" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1479,9 +1418,6 @@
       <c r="L22" t="n">
         <v>10163.93</v>
       </c>
-      <c r="M22" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1526,9 +1462,6 @@
       <c r="L23" t="n">
         <v>12417.29833333333</v>
       </c>
-      <c r="M23" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1573,9 +1506,6 @@
       <c r="L24" t="n">
         <v>16177.44</v>
       </c>
-      <c r="M24" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1620,9 +1550,6 @@
       <c r="L25" t="n">
         <v>9105.154999999999</v>
       </c>
-      <c r="M25" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1667,9 +1594,6 @@
       <c r="L26" t="n">
         <v>11889.515</v>
       </c>
-      <c r="M26" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,9 +1638,6 @@
       <c r="L27" t="n">
         <v>4879.31</v>
       </c>
-      <c r="M27" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1761,9 +1682,6 @@
       <c r="L28" t="n">
         <v>9760.253333333334</v>
       </c>
-      <c r="M28" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1808,9 +1726,6 @@
       <c r="L29" t="n">
         <v>12553.55333333334</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,9 +1770,6 @@
       <c r="L30" t="n">
         <v>12659.00833333333</v>
       </c>
-      <c r="M30" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1902,9 +1814,6 @@
       <c r="L31" t="n">
         <v>11206.50166666667</v>
       </c>
-      <c r="M31" t="n">
-        <v>6.760000000000001</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1949,9 +1858,6 @@
       <c r="L32" t="n">
         <v>9371.013333333334</v>
       </c>
-      <c r="M32" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1996,9 +1902,6 @@
       <c r="L33" t="n">
         <v>10962.225</v>
       </c>
-      <c r="M33" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,9 +1946,6 @@
       <c r="L34" t="n">
         <v>6467.83</v>
       </c>
-      <c r="M34" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2090,9 +1990,6 @@
       <c r="L35" t="n">
         <v>10504.11</v>
       </c>
-      <c r="M35" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2137,7 +2034,6 @@
       <c r="L36" t="n">
         <v>15387.10333333333</v>
       </c>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2182,9 +2078,6 @@
       <c r="L37" t="n">
         <v>28508.51833333333</v>
       </c>
-      <c r="M37" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2229,9 +2122,6 @@
       <c r="L38" t="n">
         <v>20267.945</v>
       </c>
-      <c r="M38" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2276,9 +2166,6 @@
       <c r="L39" t="n">
         <v>20080.44444444444</v>
       </c>
-      <c r="M39" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2323,9 +2210,6 @@
       <c r="L40" t="n">
         <v>24615.305</v>
       </c>
-      <c r="M40" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2370,9 +2254,6 @@
       <c r="L41" t="n">
         <v>21090.4325</v>
       </c>
-      <c r="M41" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2417,9 +2298,6 @@
       <c r="L42" t="n">
         <v>23530.425</v>
       </c>
-      <c r="M42" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2464,9 +2342,6 @@
       <c r="L43" t="n">
         <v>13326.915</v>
       </c>
-      <c r="M43" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2511,9 +2386,6 @@
       <c r="L44" t="n">
         <v>20898.15333333333</v>
       </c>
-      <c r="M44" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2558,9 +2430,6 @@
       <c r="L45" t="n">
         <v>15509.77</v>
       </c>
-      <c r="M45" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2605,9 +2474,6 @@
       <c r="L46" t="n">
         <v>18544.84</v>
       </c>
-      <c r="M46" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2652,9 +2518,6 @@
       <c r="L47" t="n">
         <v>14573.82</v>
       </c>
-      <c r="M47" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2699,9 +2562,6 @@
       <c r="L48" t="n">
         <v>16785.18333333333</v>
       </c>
-      <c r="M48" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2746,9 +2606,6 @@
       <c r="L49" t="n">
         <v>17102.59</v>
       </c>
-      <c r="M49" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2793,9 +2650,6 @@
       <c r="L50" t="n">
         <v>19982.00555555556</v>
       </c>
-      <c r="M50" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2840,9 +2694,6 @@
       <c r="L51" t="n">
         <v>31104.705</v>
       </c>
-      <c r="M51" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2887,9 +2738,6 @@
       <c r="L52" t="n">
         <v>19618.125</v>
       </c>
-      <c r="M52" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2934,7 +2782,6 @@
       <c r="L53" t="n">
         <v>16564.0525</v>
       </c>
-      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2979,9 +2826,6 @@
       <c r="L54" t="n">
         <v>16954.20111111111</v>
       </c>
-      <c r="M54" t="n">
-        <v>5.900000000000001</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3026,9 +2870,6 @@
       <c r="L55" t="n">
         <v>19578.365</v>
       </c>
-      <c r="M55" t="n">
-        <v>7.78</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3073,9 +2914,6 @@
       <c r="L56" t="n">
         <v>14936.83666666667</v>
       </c>
-      <c r="M56" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3120,9 +2958,6 @@
       <c r="L57" t="n">
         <v>16866.93166666667</v>
       </c>
-      <c r="M57" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3167,9 +3002,6 @@
       <c r="L58" t="n">
         <v>12832.9725</v>
       </c>
-      <c r="M58" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3214,9 +3046,6 @@
       <c r="L59" t="n">
         <v>16403.045</v>
       </c>
-      <c r="M59" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3261,9 +3090,6 @@
       <c r="L60" t="n">
         <v>15054.31</v>
       </c>
-      <c r="M60" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3308,9 +3134,6 @@
       <c r="L61" t="n">
         <v>12131.555</v>
       </c>
-      <c r="M61" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3355,9 +3178,6 @@
       <c r="L62" t="n">
         <v>21445.85555555555</v>
       </c>
-      <c r="M62" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3402,9 +3222,6 @@
       <c r="L63" t="n">
         <v>17495.67666666667</v>
       </c>
-      <c r="M63" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3449,9 +3266,6 @@
       <c r="L64" t="n">
         <v>17052.76</v>
       </c>
-      <c r="M64" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3496,9 +3310,6 @@
       <c r="L65" t="n">
         <v>16123.5</v>
       </c>
-      <c r="M65" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3543,9 +3354,6 @@
       <c r="L66" t="n">
         <v>15266.85</v>
       </c>
-      <c r="M66" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3590,9 +3398,6 @@
       <c r="L67" t="n">
         <v>14173.13</v>
       </c>
-      <c r="M67" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3637,9 +3442,6 @@
       <c r="L68" t="n">
         <v>17264.34</v>
       </c>
-      <c r="M68" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3684,9 +3486,6 @@
       <c r="L69" t="n">
         <v>13632.385</v>
       </c>
-      <c r="M69" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3731,9 +3530,6 @@
       <c r="L70" t="n">
         <v>12669.44</v>
       </c>
-      <c r="M70" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3778,7 +3574,6 @@
       <c r="L71" t="n">
         <v>10382.12</v>
       </c>
-      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3823,9 +3618,6 @@
       <c r="L72" t="n">
         <v>11564.81333333333</v>
       </c>
-      <c r="M72" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3870,9 +3662,6 @@
       <c r="L73" t="n">
         <v>10639.72</v>
       </c>
-      <c r="M73" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3917,9 +3706,6 @@
       <c r="L74" t="n">
         <v>5769.5625</v>
       </c>
-      <c r="M74" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3964,9 +3750,6 @@
       <c r="L75" t="n">
         <v>8113.97</v>
       </c>
-      <c r="M75" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4011,9 +3794,6 @@
       <c r="L76" t="n">
         <v>9928.105</v>
       </c>
-      <c r="M76" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4058,9 +3838,6 @@
       <c r="L77" t="n">
         <v>10232.24</v>
       </c>
-      <c r="M77" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4105,9 +3882,6 @@
       <c r="L78" t="n">
         <v>8896.995833333334</v>
       </c>
-      <c r="M78" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4152,9 +3926,6 @@
       <c r="L79" t="n">
         <v>9340.543333333333</v>
       </c>
-      <c r="M79" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4199,9 +3970,6 @@
       <c r="L80" t="n">
         <v>9617.110000000001</v>
       </c>
-      <c r="M80" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4246,9 +4014,6 @@
       <c r="L81" t="n">
         <v>9980.157500000001</v>
       </c>
-      <c r="M81" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4293,9 +4058,6 @@
       <c r="L82" t="n">
         <v>8906.385</v>
       </c>
-      <c r="M82" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4340,9 +4102,6 @@
       <c r="L83" t="n">
         <v>12058.7875</v>
       </c>
-      <c r="M83" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4387,9 +4146,6 @@
       <c r="L84" t="n">
         <v>7763.9375</v>
       </c>
-      <c r="M84" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4434,9 +4190,6 @@
       <c r="L85" t="n">
         <v>7156.98</v>
       </c>
-      <c r="M85" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4481,9 +4234,6 @@
       <c r="L86" t="n">
         <v>9414.895</v>
       </c>
-      <c r="M86" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4528,9 +4278,6 @@
       <c r="L87" t="n">
         <v>8944.5</v>
       </c>
-      <c r="M87" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4575,9 +4322,6 @@
       <c r="L88" t="n">
         <v>7018.72</v>
       </c>
-      <c r="M88" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4622,7 +4366,6 @@
       <c r="L89" t="n">
         <v>15374.02</v>
       </c>
-      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4667,9 +4410,6 @@
       <c r="L90" t="n">
         <v>11746.16</v>
       </c>
-      <c r="M90" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4714,9 +4454,6 @@
       <c r="L91" t="n">
         <v>12645.93</v>
       </c>
-      <c r="M91" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4761,9 +4498,6 @@
       <c r="L92" t="n">
         <v>10998.57041666667</v>
       </c>
-      <c r="M92" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4808,9 +4542,6 @@
       <c r="L93" t="n">
         <v>14511.0125</v>
       </c>
-      <c r="M93" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4855,9 +4586,6 @@
       <c r="L94" t="n">
         <v>8658.24</v>
       </c>
-      <c r="M94" t="n">
-        <v>7.72</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4902,9 +4630,6 @@
       <c r="L95" t="n">
         <v>15829.625</v>
       </c>
-      <c r="M95" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4949,9 +4674,6 @@
       <c r="L96" t="n">
         <v>11979.9025</v>
       </c>
-      <c r="M96" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4996,9 +4718,6 @@
       <c r="L97" t="n">
         <v>13401.5325</v>
       </c>
-      <c r="M97" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5043,9 +4762,6 @@
       <c r="L98" t="n">
         <v>13062.84333333333</v>
       </c>
-      <c r="M98" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5090,9 +4806,6 @@
       <c r="L99" t="n">
         <v>16125.215</v>
       </c>
-      <c r="M99" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5137,9 +4850,6 @@
       <c r="L100" t="n">
         <v>11963.745</v>
       </c>
-      <c r="M100" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5184,9 +4894,6 @@
       <c r="L101" t="n">
         <v>13327.58333333333</v>
       </c>
-      <c r="M101" t="n">
-        <v>6.010000000000001</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5231,9 +4938,6 @@
       <c r="L102" t="n">
         <v>11452.5</v>
       </c>
-      <c r="M102" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5278,9 +4982,6 @@
       <c r="L103" t="n">
         <v>13358.89</v>
       </c>
-      <c r="M103" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5325,9 +5026,6 @@
       <c r="L104" t="n">
         <v>8593.555</v>
       </c>
-      <c r="M104" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5372,9 +5070,6 @@
       <c r="L105" t="n">
         <v>8232.433333333332</v>
       </c>
-      <c r="M105" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5418,9 +5113,6 @@
       </c>
       <c r="L106" t="n">
         <v>6068.747499999999</v>
-      </c>
-      <c r="M106" t="n">
-        <v>36.17</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.33333333333333</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>38.66666666666666</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>27.33333333333333</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>95.33333333333333</v>
+        <v>111.5</v>
       </c>
       <c r="H2" t="n">
-        <v>89.98666666666666</v>
+        <v>103.455</v>
       </c>
       <c r="I2" t="n">
-        <v>88.08666666666666</v>
+        <v>103.455</v>
       </c>
       <c r="J2" t="n">
-        <v>39.1</v>
+        <v>46.13</v>
       </c>
       <c r="K2" t="n">
-        <v>171.81</v>
+        <v>168.38</v>
       </c>
       <c r="L2" t="n">
-        <v>9942.146666666666</v>
+        <v>11582.935</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>87.5</v>
+        <v>88.5</v>
       </c>
       <c r="H3" t="n">
-        <v>87.69499999999999</v>
+        <v>89.03999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>81.8275</v>
+        <v>85.015</v>
       </c>
       <c r="J3" t="n">
-        <v>35.1375</v>
+        <v>35.72499999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>157.8825</v>
+        <v>175.735</v>
       </c>
       <c r="L3" t="n">
-        <v>10303.7175</v>
+        <v>10875.925</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.33333333333333</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>34.33333333333334</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>93.16666666666667</v>
+        <v>104.3333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>93.005</v>
+        <v>103.7366666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>81.15333333333332</v>
+        <v>89.31333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>39.74833333333333</v>
+        <v>45.48333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>160.0933333333333</v>
+        <v>160.69</v>
       </c>
       <c r="L4" t="n">
-        <v>10739.52166666667</v>
+        <v>12149.48333333333</v>
       </c>
     </row>
     <row r="5">
@@ -684,35 +684,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>72.25</v>
+        <v>103</v>
       </c>
       <c r="H6" t="n">
-        <v>72.34999999999999</v>
+        <v>103.29</v>
       </c>
       <c r="I6" t="n">
-        <v>61.45249999999999</v>
+        <v>102.95</v>
       </c>
       <c r="J6" t="n">
-        <v>29.35</v>
+        <v>46.99</v>
       </c>
       <c r="K6" t="n">
-        <v>148.69</v>
+        <v>225.81</v>
       </c>
       <c r="L6" t="n">
-        <v>7892.785</v>
+        <v>15597.4</v>
       </c>
     </row>
     <row r="7">
@@ -728,35 +728,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>76.25</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>76.45750000000001</v>
+        <v>38.23</v>
       </c>
       <c r="I7" t="n">
-        <v>72.7675</v>
+        <v>31.86</v>
       </c>
       <c r="J7" t="n">
-        <v>32.0425</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>181.7525</v>
+        <v>87.13</v>
       </c>
       <c r="L7" t="n">
-        <v>9522.360000000001</v>
+        <v>3744.3</v>
       </c>
     </row>
     <row r="8">
@@ -772,35 +772,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>64.5</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>64.89</v>
+        <v>69.4975</v>
       </c>
       <c r="I8" t="n">
-        <v>60.36499999999999</v>
+        <v>63.6325</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>28.0175</v>
       </c>
       <c r="K8" t="n">
-        <v>126.84</v>
+        <v>175.9525</v>
       </c>
       <c r="L8" t="n">
-        <v>7153.635</v>
+        <v>8046.5525</v>
       </c>
     </row>
     <row r="9">
@@ -816,35 +816,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>59.5</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>60.02500000000001</v>
+        <v>33.87</v>
       </c>
       <c r="I9" t="n">
-        <v>53.1525</v>
+        <v>32.52999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>23.995</v>
+        <v>14.76</v>
       </c>
       <c r="K9" t="n">
-        <v>163.5375</v>
+        <v>486.57</v>
       </c>
       <c r="L9" t="n">
-        <v>6927.305</v>
+        <v>5623.93</v>
       </c>
     </row>
     <row r="10">
@@ -860,35 +860,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>57.75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>58.35</v>
+        <v>77.8</v>
       </c>
       <c r="I10" t="n">
-        <v>51.3925</v>
+        <v>71.935</v>
       </c>
       <c r="J10" t="n">
-        <v>23.68</v>
+        <v>29.21</v>
       </c>
       <c r="K10" t="n">
-        <v>215.205</v>
+        <v>137.945</v>
       </c>
       <c r="L10" t="n">
-        <v>7373.81</v>
+        <v>8453.055</v>
       </c>
     </row>
     <row r="11">
@@ -904,35 +904,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.666666666666666</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>30.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>49.33333333333334</v>
+        <v>89.5</v>
       </c>
       <c r="H11" t="n">
-        <v>49.74333333333333</v>
+        <v>89.87</v>
       </c>
       <c r="I11" t="n">
-        <v>46.95</v>
+        <v>78.47</v>
       </c>
       <c r="J11" t="n">
-        <v>20.33333333333333</v>
+        <v>35.105</v>
       </c>
       <c r="K11" t="n">
-        <v>283.51</v>
+        <v>132.75</v>
       </c>
       <c r="L11" t="n">
-        <v>6414.016666666667</v>
+        <v>9622.700000000001</v>
       </c>
     </row>
     <row r="12">
@@ -948,35 +948,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>30.66666666666667</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>67.16666666666667</v>
+        <v>97</v>
       </c>
       <c r="H12" t="n">
-        <v>67.125</v>
+        <v>97.92</v>
       </c>
       <c r="I12" t="n">
-        <v>57.51333333333333</v>
+        <v>82.16</v>
       </c>
       <c r="J12" t="n">
-        <v>26.295</v>
+        <v>42.33</v>
       </c>
       <c r="K12" t="n">
-        <v>171.0933333333333</v>
+        <v>177.19</v>
       </c>
       <c r="L12" t="n">
-        <v>7587.688333333333</v>
+        <v>13312.44</v>
       </c>
     </row>
     <row r="13">
@@ -992,35 +992,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="F13" t="n">
-        <v>19.33333333333333</v>
+        <v>18.5</v>
       </c>
       <c r="G13" t="n">
-        <v>69.5</v>
+        <v>87.75</v>
       </c>
       <c r="H13" t="n">
-        <v>70.2</v>
+        <v>87.86</v>
       </c>
       <c r="I13" t="n">
-        <v>59.69333333333333</v>
+        <v>78.89249999999998</v>
       </c>
       <c r="J13" t="n">
-        <v>28.43166666666667</v>
+        <v>37.28</v>
       </c>
       <c r="K13" t="n">
-        <v>183.97</v>
+        <v>182.6675</v>
       </c>
       <c r="L13" t="n">
-        <v>8254.99</v>
+        <v>10919.2025</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1049,22 +1049,22 @@
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H14" t="n">
-        <v>97.92</v>
+        <v>64.72</v>
       </c>
       <c r="I14" t="n">
-        <v>82.16</v>
+        <v>53.65</v>
       </c>
       <c r="J14" t="n">
-        <v>42.33</v>
+        <v>25.69</v>
       </c>
       <c r="K14" t="n">
-        <v>177.19</v>
+        <v>162.86</v>
       </c>
       <c r="L14" t="n">
-        <v>13312.44</v>
+        <v>6755.05</v>
       </c>
     </row>
     <row r="15">
@@ -1080,41 +1080,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>30.66666666666666</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>18.66666666666666</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>84.41666666666666</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>84.64666666666668</v>
+        <v>71.765</v>
       </c>
       <c r="I15" t="n">
-        <v>76.62833333333333</v>
+        <v>66.00999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>35.2275</v>
+        <v>28.465</v>
       </c>
       <c r="K15" t="n">
-        <v>184.4466666666667</v>
+        <v>198.6583333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>10158.99666666667</v>
+        <v>8446.375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1124,41 +1124,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>61.5</v>
+        <v>109.5</v>
       </c>
       <c r="H16" t="n">
-        <v>61.87</v>
+        <v>109.83</v>
       </c>
       <c r="I16" t="n">
-        <v>50.55249999999999</v>
+        <v>102.115</v>
       </c>
       <c r="J16" t="n">
-        <v>24.2225</v>
+        <v>44.435</v>
       </c>
       <c r="K16" t="n">
-        <v>158.8125</v>
+        <v>139.465</v>
       </c>
       <c r="L16" t="n">
-        <v>6601.772499999999</v>
+        <v>12934.615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1168,41 +1168,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>49.25</v>
+        <v>85.25</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5475</v>
+        <v>85.00999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>44.3475</v>
+        <v>77.55249999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>19.405</v>
+        <v>32.2575</v>
       </c>
       <c r="K17" t="n">
-        <v>155.74</v>
+        <v>120.08</v>
       </c>
       <c r="L17" t="n">
-        <v>5662.575000000001</v>
+        <v>7847.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1212,35 +1212,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>18.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>71.33333333333333</v>
+        <v>106.5</v>
       </c>
       <c r="H18" t="n">
-        <v>71.765</v>
+        <v>106.98</v>
       </c>
       <c r="I18" t="n">
-        <v>66.00999999999999</v>
+        <v>101.785</v>
       </c>
       <c r="J18" t="n">
-        <v>28.465</v>
+        <v>43.455</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6583333333333</v>
+        <v>126.445</v>
       </c>
       <c r="L18" t="n">
-        <v>8446.375</v>
+        <v>11294.09</v>
       </c>
     </row>
     <row r="19">
@@ -1256,35 +1256,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>30.5</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>117.25</v>
+        <v>88</v>
       </c>
       <c r="H19" t="n">
-        <v>117.71</v>
+        <v>87.86</v>
       </c>
       <c r="I19" t="n">
-        <v>110.3325</v>
+        <v>76.13</v>
       </c>
       <c r="J19" t="n">
-        <v>49.045</v>
+        <v>34.1</v>
       </c>
       <c r="K19" t="n">
-        <v>144.385</v>
+        <v>128.32</v>
       </c>
       <c r="L19" t="n">
-        <v>14332.9575</v>
+        <v>10163.93</v>
       </c>
     </row>
     <row r="20">
@@ -1300,35 +1300,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>86.5</v>
+        <v>108</v>
       </c>
       <c r="H20" t="n">
-        <v>86.35249999999999</v>
+        <v>108.145</v>
       </c>
       <c r="I20" t="n">
-        <v>79.22999999999999</v>
+        <v>92.55500000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>32.8775</v>
+        <v>41.75</v>
       </c>
       <c r="K20" t="n">
-        <v>126.715</v>
+        <v>116.44</v>
       </c>
       <c r="L20" t="n">
-        <v>8173.8525</v>
+        <v>10874.43</v>
       </c>
     </row>
     <row r="21">
@@ -1344,35 +1344,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>19.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>103.6666666666667</v>
+        <v>133</v>
       </c>
       <c r="H21" t="n">
-        <v>104.1283333333333</v>
+        <v>133.47</v>
       </c>
       <c r="I21" t="n">
-        <v>97.08833333333332</v>
+        <v>114.35</v>
       </c>
       <c r="J21" t="n">
-        <v>42.29</v>
+        <v>55.72</v>
       </c>
       <c r="K21" t="n">
-        <v>140.3816666666667</v>
+        <v>154.91</v>
       </c>
       <c r="L21" t="n">
-        <v>11163.91166666667</v>
+        <v>15440.16</v>
       </c>
     </row>
     <row r="22">
@@ -1388,35 +1388,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H22" t="n">
-        <v>87.86</v>
+        <v>78.47</v>
       </c>
       <c r="I22" t="n">
-        <v>76.13</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>34.1</v>
+        <v>29.08</v>
       </c>
       <c r="K22" t="n">
-        <v>128.32</v>
+        <v>146.41</v>
       </c>
       <c r="L22" t="n">
-        <v>10163.93</v>
+        <v>7069.06</v>
       </c>
     </row>
     <row r="23">
@@ -1432,35 +1432,35 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>33.66666666666666</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>23.33333333333333</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>111.1666666666667</v>
+        <v>109</v>
       </c>
       <c r="H23" t="n">
-        <v>111.39</v>
+        <v>109.66</v>
       </c>
       <c r="I23" t="n">
-        <v>95.57499999999999</v>
+        <v>96.08500000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>45.76666666666667</v>
+        <v>32.62</v>
       </c>
       <c r="K23" t="n">
-        <v>143.2483333333333</v>
+        <v>87.22</v>
       </c>
       <c r="L23" t="n">
-        <v>12417.29833333333</v>
+        <v>4879.31</v>
       </c>
     </row>
     <row r="24">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1489,22 +1489,22 @@
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>120</v>
+        <v>110.5</v>
       </c>
       <c r="H24" t="n">
-        <v>120.39</v>
+        <v>111.005</v>
       </c>
       <c r="I24" t="n">
-        <v>119.05</v>
+        <v>104.805</v>
       </c>
       <c r="J24" t="n">
-        <v>51.27</v>
+        <v>44.49</v>
       </c>
       <c r="K24" t="n">
-        <v>227.89</v>
+        <v>150.655</v>
       </c>
       <c r="L24" t="n">
-        <v>16177.44</v>
+        <v>12885.505</v>
       </c>
     </row>
     <row r="25">
@@ -1520,35 +1520,35 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>87.25</v>
+        <v>156</v>
       </c>
       <c r="H25" t="n">
-        <v>87.61</v>
+        <v>156.27</v>
       </c>
       <c r="I25" t="n">
-        <v>74.61499999999999</v>
+        <v>143.53</v>
       </c>
       <c r="J25" t="n">
-        <v>34.7475</v>
+        <v>61.66</v>
       </c>
       <c r="K25" t="n">
-        <v>150.925</v>
+        <v>115.21</v>
       </c>
       <c r="L25" t="n">
-        <v>9105.154999999999</v>
+        <v>15174.66</v>
       </c>
     </row>
     <row r="26">
@@ -1564,35 +1564,35 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>30.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>22.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>101.3333333333333</v>
+        <v>85</v>
       </c>
       <c r="H26" t="n">
-        <v>101.61</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>89.59499999999998</v>
+        <v>79.14</v>
       </c>
       <c r="J26" t="n">
-        <v>41.25333333333333</v>
+        <v>37.09</v>
       </c>
       <c r="K26" t="n">
-        <v>172.0316666666667</v>
+        <v>197.67</v>
       </c>
       <c r="L26" t="n">
-        <v>11889.515</v>
+        <v>10907.08</v>
       </c>
     </row>
     <row r="27">
@@ -1608,35 +1608,35 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>109</v>
+        <v>106.8333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>109.66</v>
+        <v>107.1983333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>96.08500000000001</v>
+        <v>96.3</v>
       </c>
       <c r="J27" t="n">
-        <v>32.62</v>
+        <v>43.17833333333333</v>
       </c>
       <c r="K27" t="n">
-        <v>87.22</v>
+        <v>148.4216666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>4879.31</v>
+        <v>11844.40833333333</v>
       </c>
     </row>
     <row r="28">
@@ -1652,35 +1652,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>86.33333333333333</v>
+        <v>101</v>
       </c>
       <c r="H28" t="n">
-        <v>86.48444444444446</v>
+        <v>101.615</v>
       </c>
       <c r="I28" t="n">
-        <v>80.03999999999999</v>
+        <v>89.88</v>
       </c>
       <c r="J28" t="n">
-        <v>34.67777777777778</v>
+        <v>38.855</v>
       </c>
       <c r="K28" t="n">
-        <v>147.71</v>
+        <v>124.995</v>
       </c>
       <c r="L28" t="n">
-        <v>9760.253333333334</v>
+        <v>9964.129999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1696,35 +1696,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>110.6666666666667</v>
+        <v>105.5</v>
       </c>
       <c r="H29" t="n">
-        <v>110.9466666666667</v>
+        <v>106.14</v>
       </c>
       <c r="I29" t="n">
-        <v>96.92166666666667</v>
+        <v>96.08</v>
       </c>
       <c r="J29" t="n">
-        <v>44.54166666666667</v>
+        <v>44.98</v>
       </c>
       <c r="K29" t="n">
-        <v>157.8883333333333</v>
+        <v>177.99</v>
       </c>
       <c r="L29" t="n">
-        <v>12553.55333333334</v>
+        <v>12782.315</v>
       </c>
     </row>
     <row r="30">
@@ -1740,35 +1740,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11.33333333333333</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>30.33333333333334</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>102.5</v>
+        <v>83</v>
       </c>
       <c r="H30" t="n">
-        <v>102.8433333333333</v>
+        <v>83.16</v>
       </c>
       <c r="I30" t="n">
-        <v>93.39666666666666</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>43.62666666666667</v>
+        <v>29.64</v>
       </c>
       <c r="K30" t="n">
-        <v>185.075</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>12659.00833333333</v>
+        <v>6467.83</v>
       </c>
     </row>
     <row r="31">
@@ -1784,211 +1784,211 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9.444444444444445</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>30.77777777777778</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>21.33333333333333</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>100.8333333333333</v>
+        <v>92</v>
       </c>
       <c r="H31" t="n">
-        <v>101.1244444444444</v>
+        <v>91.55</v>
       </c>
       <c r="I31" t="n">
-        <v>91.23277777777777</v>
+        <v>83.84</v>
       </c>
       <c r="J31" t="n">
-        <v>40.53444444444445</v>
+        <v>36.4</v>
       </c>
       <c r="K31" t="n">
-        <v>146.9594444444444</v>
+        <v>157.29</v>
       </c>
       <c r="L31" t="n">
-        <v>11206.50166666667</v>
+        <v>10504.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>90.5</v>
+        <v>109</v>
       </c>
       <c r="H32" t="n">
-        <v>90.825</v>
+        <v>109.49</v>
       </c>
       <c r="I32" t="n">
-        <v>81.15499999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>35.50333333333333</v>
+        <v>43.465</v>
       </c>
       <c r="K32" t="n">
-        <v>145.85</v>
+        <v>189.6</v>
       </c>
       <c r="L32" t="n">
-        <v>9371.013333333334</v>
+        <v>11780.58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="G33" t="n">
-        <v>98</v>
+        <v>186.5</v>
       </c>
       <c r="H33" t="n">
-        <v>98.3425</v>
+        <v>186.96</v>
       </c>
       <c r="I33" t="n">
-        <v>87.11</v>
+        <v>171.87</v>
       </c>
       <c r="J33" t="n">
-        <v>40.26</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>160.225</v>
+        <v>200.74</v>
       </c>
       <c r="L33" t="n">
-        <v>10962.225</v>
+        <v>26424.38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="H34" t="n">
-        <v>83.16</v>
+        <v>159.63</v>
       </c>
       <c r="I34" t="n">
-        <v>68.06999999999999</v>
+        <v>133.14</v>
       </c>
       <c r="J34" t="n">
-        <v>29.64</v>
+        <v>70.09</v>
       </c>
       <c r="K34" t="n">
-        <v>88.15000000000001</v>
+        <v>153.54</v>
       </c>
       <c r="L34" t="n">
-        <v>6467.83</v>
+        <v>17231.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
       </c>
       <c r="F35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="H35" t="n">
-        <v>91.55</v>
+        <v>247.91</v>
       </c>
       <c r="I35" t="n">
-        <v>83.84</v>
+        <v>226.285</v>
       </c>
       <c r="J35" t="n">
-        <v>36.4</v>
+        <v>99.14750000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>157.29</v>
+        <v>160.0625</v>
       </c>
       <c r="L35" t="n">
-        <v>10504.11</v>
+        <v>26942.065</v>
       </c>
     </row>
     <row r="36">
@@ -2004,35 +2004,35 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>37.66666666666666</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>234.6666666666667</v>
+        <v>250</v>
       </c>
       <c r="H36" t="n">
-        <v>229.1033333333333</v>
+        <v>250.18</v>
       </c>
       <c r="I36" t="n">
-        <v>217.9233333333333</v>
+        <v>234.76</v>
       </c>
       <c r="J36" t="n">
-        <v>81.705</v>
+        <v>81.47</v>
       </c>
       <c r="K36" t="n">
-        <v>103.1533333333334</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>15387.10333333333</v>
+        <v>17480.66</v>
       </c>
     </row>
     <row r="37">
@@ -2048,35 +2048,35 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>29.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>20.66666666666667</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>223.6666666666667</v>
+        <v>251</v>
       </c>
       <c r="H37" t="n">
-        <v>223.515</v>
+        <v>250.84</v>
       </c>
       <c r="I37" t="n">
-        <v>211.165</v>
+        <v>214.96</v>
       </c>
       <c r="J37" t="n">
-        <v>97.84499999999998</v>
+        <v>111.18</v>
       </c>
       <c r="K37" t="n">
-        <v>184.6833333333333</v>
+        <v>151.64</v>
       </c>
       <c r="L37" t="n">
-        <v>28508.51833333333</v>
+        <v>25300.9</v>
       </c>
     </row>
     <row r="38">
@@ -2092,35 +2092,35 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
+        <v>35</v>
+      </c>
+      <c r="F38" t="n">
         <v>25</v>
       </c>
-      <c r="F38" t="n">
-        <v>14</v>
-      </c>
       <c r="G38" t="n">
-        <v>162.5</v>
+        <v>237.5</v>
       </c>
       <c r="H38" t="n">
-        <v>162.985</v>
+        <v>231.065</v>
       </c>
       <c r="I38" t="n">
-        <v>141.19</v>
+        <v>229.72</v>
       </c>
       <c r="J38" t="n">
-        <v>72.11500000000001</v>
+        <v>96.065</v>
       </c>
       <c r="K38" t="n">
-        <v>166.71</v>
+        <v>90.995</v>
       </c>
       <c r="L38" t="n">
-        <v>20267.945</v>
+        <v>22737.715</v>
       </c>
     </row>
     <row r="39">
@@ -2136,35 +2136,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>30.66666666666667</v>
+        <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3333333333333</v>
+        <v>299</v>
       </c>
       <c r="H39" t="n">
-        <v>197.1666666666667</v>
+        <v>298.8</v>
       </c>
       <c r="I39" t="n">
-        <v>186.6633333333333</v>
+        <v>282.37</v>
       </c>
       <c r="J39" t="n">
-        <v>76.62277777777778</v>
+        <v>81.89</v>
       </c>
       <c r="K39" t="n">
-        <v>143.735</v>
+        <v>44.95</v>
       </c>
       <c r="L39" t="n">
-        <v>20080.44444444444</v>
+        <v>11856.75</v>
       </c>
     </row>
     <row r="40">
@@ -2180,35 +2180,35 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>266.5</v>
+        <v>183</v>
       </c>
       <c r="H40" t="n">
-        <v>266.4400000000001</v>
+        <v>183.2166666666667</v>
       </c>
       <c r="I40" t="n">
-        <v>248.67</v>
+        <v>160.0766666666667</v>
       </c>
       <c r="J40" t="n">
-        <v>98.14</v>
+        <v>75.92666666666666</v>
       </c>
       <c r="K40" t="n">
-        <v>126.2</v>
+        <v>154.68</v>
       </c>
       <c r="L40" t="n">
-        <v>24615.305</v>
+        <v>20742.03333333333</v>
       </c>
     </row>
     <row r="41">
@@ -2224,35 +2224,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>210.75</v>
+        <v>88</v>
       </c>
       <c r="H41" t="n">
-        <v>211.1</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>186.7925</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>88.77000000000001</v>
+        <v>39.85</v>
       </c>
       <c r="K41" t="n">
-        <v>128.35</v>
+        <v>195.87</v>
       </c>
       <c r="L41" t="n">
-        <v>21090.4325</v>
+        <v>12143.53</v>
       </c>
     </row>
     <row r="42">
@@ -2268,35 +2268,35 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G42" t="n">
-        <v>239.75</v>
+        <v>159.5</v>
       </c>
       <c r="H42" t="n">
-        <v>233.16</v>
+        <v>159.465</v>
       </c>
       <c r="I42" t="n">
-        <v>231.145</v>
+        <v>142.28</v>
       </c>
       <c r="J42" t="n">
-        <v>99.375</v>
+        <v>56.9175</v>
       </c>
       <c r="K42" t="n">
-        <v>107.4975</v>
+        <v>134.085</v>
       </c>
       <c r="L42" t="n">
-        <v>23530.425</v>
+        <v>14765.0175</v>
       </c>
     </row>
     <row r="43">
@@ -2312,35 +2312,35 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>227.5</v>
+        <v>312</v>
       </c>
       <c r="H43" t="n">
-        <v>227.37</v>
+        <v>312.89</v>
       </c>
       <c r="I43" t="n">
-        <v>213.62</v>
+        <v>312.89</v>
       </c>
       <c r="J43" t="n">
-        <v>72.38500000000001</v>
+        <v>88.61</v>
       </c>
       <c r="K43" t="n">
-        <v>85.255</v>
+        <v>53.59</v>
       </c>
       <c r="L43" t="n">
-        <v>13326.915</v>
+        <v>17102.59</v>
       </c>
     </row>
     <row r="44">
@@ -2356,35 +2356,35 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>28.66666666666667</v>
+        <v>31.5</v>
       </c>
       <c r="F44" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="G44" t="n">
-        <v>176.8333333333333</v>
+        <v>226.25</v>
       </c>
       <c r="H44" t="n">
-        <v>176.565</v>
+        <v>226.1925</v>
       </c>
       <c r="I44" t="n">
-        <v>161.0266666666667</v>
+        <v>199.37</v>
       </c>
       <c r="J44" t="n">
-        <v>74.49833333333333</v>
+        <v>96.1825</v>
       </c>
       <c r="K44" t="n">
-        <v>152.6733333333333</v>
+        <v>161.8675</v>
       </c>
       <c r="L44" t="n">
-        <v>20898.15333333333</v>
+        <v>25734.715</v>
       </c>
     </row>
     <row r="45">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2413,22 +2413,22 @@
         <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="H45" t="n">
-        <v>173.38</v>
+        <v>206.58</v>
       </c>
       <c r="I45" t="n">
-        <v>169.02</v>
+        <v>170.7</v>
       </c>
       <c r="J45" t="n">
-        <v>66.95</v>
+        <v>87.48</v>
       </c>
       <c r="K45" t="n">
-        <v>103.73</v>
+        <v>166.42</v>
       </c>
       <c r="L45" t="n">
-        <v>15509.77</v>
+        <v>23805.73</v>
       </c>
     </row>
     <row r="46">
@@ -2444,41 +2444,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.66666666666667</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
         <v>30</v>
       </c>
       <c r="F46" t="n">
-        <v>19.33333333333333</v>
+        <v>26</v>
       </c>
       <c r="G46" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H46" t="n">
-        <v>188.2466666666667</v>
+        <v>181.09</v>
       </c>
       <c r="I46" t="n">
-        <v>168.3516666666667</v>
+        <v>152.92</v>
       </c>
       <c r="J46" t="n">
-        <v>72.02999999999999</v>
+        <v>71.815</v>
       </c>
       <c r="K46" t="n">
-        <v>127.3116666666667</v>
+        <v>150.605</v>
       </c>
       <c r="L46" t="n">
-        <v>18544.84</v>
+        <v>19618.125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2488,41 +2488,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="G47" t="n">
-        <v>128.5</v>
+        <v>206.5</v>
       </c>
       <c r="H47" t="n">
-        <v>127.935</v>
+        <v>207.025</v>
       </c>
       <c r="I47" t="n">
-        <v>125.085</v>
+        <v>181.8183333333334</v>
       </c>
       <c r="J47" t="n">
-        <v>55.22</v>
+        <v>78.845</v>
       </c>
       <c r="K47" t="n">
-        <v>157.735</v>
+        <v>118.5566666666667</v>
       </c>
       <c r="L47" t="n">
-        <v>14573.82</v>
+        <v>17546.71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2532,41 +2532,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>31.33333333333333</v>
+        <v>41</v>
       </c>
       <c r="F48" t="n">
-        <v>18.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n">
-        <v>158</v>
+        <v>226.5</v>
       </c>
       <c r="H48" t="n">
-        <v>157.9166666666667</v>
+        <v>216.81</v>
       </c>
       <c r="I48" t="n">
-        <v>140.0116666666667</v>
+        <v>207.08</v>
       </c>
       <c r="J48" t="n">
-        <v>62.57833333333333</v>
+        <v>88.78</v>
       </c>
       <c r="K48" t="n">
-        <v>143.5016666666667</v>
+        <v>110.855</v>
       </c>
       <c r="L48" t="n">
-        <v>16785.18333333333</v>
+        <v>19578.365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2576,41 +2576,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="H49" t="n">
-        <v>312.89</v>
+        <v>251.18</v>
       </c>
       <c r="I49" t="n">
-        <v>312.89</v>
+        <v>212.95</v>
       </c>
       <c r="J49" t="n">
-        <v>88.61</v>
+        <v>99.36</v>
       </c>
       <c r="K49" t="n">
-        <v>53.59</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>17102.59</v>
+        <v>16373.61</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2620,41 +2620,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11.22222222222222</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>30.88888888888889</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>19.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>184.5555555555555</v>
+        <v>223</v>
       </c>
       <c r="H50" t="n">
-        <v>184.4405555555556</v>
+        <v>223.515</v>
       </c>
       <c r="I50" t="n">
-        <v>160.6922222222222</v>
+        <v>184.95</v>
       </c>
       <c r="J50" t="n">
-        <v>76.27833333333332</v>
+        <v>87.30500000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>147.5355555555555</v>
+        <v>102.915</v>
       </c>
       <c r="L50" t="n">
-        <v>19982.00555555556</v>
+        <v>19200.59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2664,41 +2664,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>245.5</v>
+        <v>276.5</v>
       </c>
       <c r="H51" t="n">
-        <v>245.815</v>
+        <v>276.5</v>
       </c>
       <c r="I51" t="n">
-        <v>220.495</v>
+        <v>271.81</v>
       </c>
       <c r="J51" t="n">
-        <v>105.715</v>
+        <v>89.075</v>
       </c>
       <c r="K51" t="n">
-        <v>155.915</v>
+        <v>68.86</v>
       </c>
       <c r="L51" t="n">
-        <v>31104.705</v>
+        <v>16403.045</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2708,35 +2708,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H52" t="n">
-        <v>181.09</v>
+        <v>169.69</v>
       </c>
       <c r="I52" t="n">
-        <v>152.92</v>
+        <v>150.24</v>
       </c>
       <c r="J52" t="n">
-        <v>71.815</v>
+        <v>63.34</v>
       </c>
       <c r="K52" t="n">
-        <v>150.605</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>19618.125</v>
+        <v>13351.68</v>
       </c>
     </row>
     <row r="53">
@@ -2752,35 +2752,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="F53" t="n">
-        <v>26.5</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="H53" t="n">
-        <v>185.4525</v>
+        <v>139.17</v>
       </c>
       <c r="I53" t="n">
-        <v>175.395</v>
+        <v>122.4</v>
       </c>
       <c r="J53" t="n">
-        <v>78.84999999999999</v>
+        <v>56.36</v>
       </c>
       <c r="K53" t="n">
-        <v>97.8175</v>
+        <v>124.24</v>
       </c>
       <c r="L53" t="n">
-        <v>16564.0525</v>
+        <v>13350.31</v>
       </c>
     </row>
     <row r="54">
@@ -2796,35 +2796,35 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>29.11111111111111</v>
+        <v>41</v>
       </c>
       <c r="F54" t="n">
-        <v>19.11111111111111</v>
+        <v>31</v>
       </c>
       <c r="G54" t="n">
-        <v>203.9444444444445</v>
+        <v>232.5</v>
       </c>
       <c r="H54" t="n">
-        <v>204.4172222222222</v>
+        <v>203.895</v>
       </c>
       <c r="I54" t="n">
-        <v>178.1294444444444</v>
+        <v>198.025</v>
       </c>
       <c r="J54" t="n">
-        <v>76.77166666666666</v>
+        <v>96.49000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>107.0888888888889</v>
+        <v>125.21</v>
       </c>
       <c r="L54" t="n">
-        <v>16954.20111111111</v>
+        <v>21851.71</v>
       </c>
     </row>
     <row r="55">
@@ -2840,35 +2840,35 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="F55" t="n">
-        <v>31</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="G55" t="n">
-        <v>226.5</v>
+        <v>200.5</v>
       </c>
       <c r="H55" t="n">
-        <v>216.81</v>
+        <v>200.82</v>
       </c>
       <c r="I55" t="n">
-        <v>207.08</v>
+        <v>165.1083333333333</v>
       </c>
       <c r="J55" t="n">
-        <v>88.78</v>
+        <v>78.7</v>
       </c>
       <c r="K55" t="n">
-        <v>110.855</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="L55" t="n">
-        <v>19578.365</v>
+        <v>18281.18833333334</v>
       </c>
     </row>
     <row r="56">
@@ -2884,35 +2884,35 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>33.33333333333334</v>
+        <v>27.5</v>
       </c>
       <c r="F56" t="n">
-        <v>23.33333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="G56" t="n">
-        <v>185.3333333333333</v>
+        <v>189</v>
       </c>
       <c r="H56" t="n">
-        <v>185.6766666666666</v>
+        <v>188.9775</v>
       </c>
       <c r="I56" t="n">
-        <v>168.2366666666667</v>
+        <v>164.245</v>
       </c>
       <c r="J56" t="n">
-        <v>72.68666666666667</v>
+        <v>75.315</v>
       </c>
       <c r="K56" t="n">
-        <v>100.1866666666667</v>
+        <v>106.2175</v>
       </c>
       <c r="L56" t="n">
-        <v>14936.83666666667</v>
+        <v>17052.76</v>
       </c>
     </row>
     <row r="57">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2941,22 +2941,22 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>191.8333333333333</v>
+        <v>180</v>
       </c>
       <c r="H57" t="n">
-        <v>192.2683333333333</v>
+        <v>180.08</v>
       </c>
       <c r="I57" t="n">
-        <v>162.645</v>
+        <v>170.69</v>
       </c>
       <c r="J57" t="n">
-        <v>75.27666666666666</v>
+        <v>66.48</v>
       </c>
       <c r="K57" t="n">
-        <v>105.4383333333333</v>
+        <v>134.82</v>
       </c>
       <c r="L57" t="n">
-        <v>16866.93166666667</v>
+        <v>16123.5</v>
       </c>
     </row>
     <row r="58">
@@ -2972,35 +2972,35 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>63.5</v>
+        <v>30</v>
       </c>
       <c r="F58" t="n">
-        <v>53.5</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="H58" t="n">
-        <v>170.275</v>
+        <v>194.84</v>
       </c>
       <c r="I58" t="n">
-        <v>167.0075</v>
+        <v>179.75</v>
       </c>
       <c r="J58" t="n">
-        <v>72.215</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>93.22749999999999</v>
+        <v>157.37</v>
       </c>
       <c r="L58" t="n">
-        <v>12832.9725</v>
+        <v>20143.85</v>
       </c>
     </row>
     <row r="59">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3029,22 +3029,22 @@
         <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>276.5</v>
+        <v>188</v>
       </c>
       <c r="H59" t="n">
-        <v>276.5</v>
+        <v>188.47</v>
       </c>
       <c r="I59" t="n">
-        <v>271.81</v>
+        <v>174.05</v>
       </c>
       <c r="J59" t="n">
-        <v>89.075</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>68.86</v>
+        <v>111.95</v>
       </c>
       <c r="L59" t="n">
-        <v>16403.045</v>
+        <v>17677.48</v>
       </c>
     </row>
     <row r="60">
@@ -3060,35 +3060,35 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n">
         <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>175</v>
+        <v>124.5</v>
       </c>
       <c r="H60" t="n">
-        <v>175.055</v>
+        <v>124.42</v>
       </c>
       <c r="I60" t="n">
-        <v>156.95</v>
+        <v>108.325</v>
       </c>
       <c r="J60" t="n">
-        <v>66.495</v>
+        <v>50.975</v>
       </c>
       <c r="K60" t="n">
-        <v>103.04</v>
+        <v>120.545</v>
       </c>
       <c r="L60" t="n">
-        <v>15054.31</v>
+        <v>11961.16</v>
       </c>
     </row>
     <row r="61">
@@ -3104,41 +3104,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F61" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>128.5</v>
+        <v>173</v>
       </c>
       <c r="H61" t="n">
-        <v>128.945</v>
+        <v>173.21</v>
       </c>
       <c r="I61" t="n">
-        <v>111.675</v>
+        <v>153.085</v>
       </c>
       <c r="J61" t="n">
-        <v>52.275</v>
+        <v>66.98</v>
       </c>
       <c r="K61" t="n">
-        <v>120.295</v>
+        <v>113.57</v>
       </c>
       <c r="L61" t="n">
-        <v>12131.555</v>
+        <v>16331.72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3148,41 +3148,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>37.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>27.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>230.1111111111111</v>
+        <v>144</v>
       </c>
       <c r="H62" t="n">
-        <v>211.3111111111111</v>
+        <v>144.54</v>
       </c>
       <c r="I62" t="n">
-        <v>189.6233333333333</v>
+        <v>135.82</v>
       </c>
       <c r="J62" t="n">
-        <v>94.43555555555555</v>
+        <v>42.67</v>
       </c>
       <c r="K62" t="n">
-        <v>116.6711111111111</v>
+        <v>50.41</v>
       </c>
       <c r="L62" t="n">
-        <v>21445.85555555555</v>
+        <v>9416.059999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3192,41 +3192,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>30.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="F63" t="n">
-        <v>20.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>195.1666666666667</v>
+        <v>138</v>
       </c>
       <c r="H63" t="n">
-        <v>195.5116666666667</v>
+        <v>138.675</v>
       </c>
       <c r="I63" t="n">
-        <v>163.4316666666666</v>
+        <v>133.145</v>
       </c>
       <c r="J63" t="n">
-        <v>75.80166666666666</v>
+        <v>50.645</v>
       </c>
       <c r="K63" t="n">
-        <v>111.7033333333333</v>
+        <v>89.39500000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>17495.67666666667</v>
+        <v>10816.65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3236,41 +3236,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="H64" t="n">
-        <v>188.9775</v>
+        <v>149.9</v>
       </c>
       <c r="I64" t="n">
-        <v>164.245</v>
+        <v>127.44</v>
       </c>
       <c r="J64" t="n">
-        <v>75.315</v>
+        <v>48.8</v>
       </c>
       <c r="K64" t="n">
-        <v>106.2175</v>
+        <v>78.48</v>
       </c>
       <c r="L64" t="n">
-        <v>17052.76</v>
+        <v>9582.67</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3280,41 +3280,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G65" t="n">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="H65" t="n">
-        <v>180.08</v>
+        <v>97.255</v>
       </c>
       <c r="I65" t="n">
-        <v>170.69</v>
+        <v>91.38000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>66.48</v>
+        <v>30.225</v>
       </c>
       <c r="K65" t="n">
-        <v>134.82</v>
+        <v>124.99</v>
       </c>
       <c r="L65" t="n">
-        <v>16123.5</v>
+        <v>5035.885</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3324,41 +3324,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>31.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="F66" t="n">
-        <v>20.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>175.5</v>
+        <v>163</v>
       </c>
       <c r="H66" t="n">
-        <v>175.3916666666667</v>
+        <v>163.32</v>
       </c>
       <c r="I66" t="n">
-        <v>169.2466666666667</v>
+        <v>144.2</v>
       </c>
       <c r="J66" t="n">
-        <v>68.06999999999999</v>
+        <v>47.02</v>
       </c>
       <c r="K66" t="n">
-        <v>116.6333333333333</v>
+        <v>56.96</v>
       </c>
       <c r="L66" t="n">
-        <v>15266.85</v>
+        <v>8113.97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3368,41 +3368,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>161.5</v>
+        <v>171</v>
       </c>
       <c r="H67" t="n">
-        <v>161.64</v>
+        <v>171.37</v>
       </c>
       <c r="I67" t="n">
-        <v>151.415</v>
+        <v>150.58</v>
       </c>
       <c r="J67" t="n">
-        <v>62.185</v>
+        <v>48.31</v>
       </c>
       <c r="K67" t="n">
-        <v>116.04</v>
+        <v>31.06</v>
       </c>
       <c r="L67" t="n">
-        <v>14173.13</v>
+        <v>6965.42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3412,41 +3412,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10.33333333333333</v>
+        <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>37.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="F68" t="n">
-        <v>27.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>187.8333333333333</v>
+        <v>136</v>
       </c>
       <c r="H68" t="n">
-        <v>182.6566666666667</v>
+        <v>135.82</v>
       </c>
       <c r="I68" t="n">
-        <v>167.2316666666667</v>
+        <v>127.1</v>
       </c>
       <c r="J68" t="n">
-        <v>78.39166666666667</v>
+        <v>47</v>
       </c>
       <c r="K68" t="n">
-        <v>118.3983333333333</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>17264.34</v>
+        <v>9582.290000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3456,41 +3456,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>29.33333333333334</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>18.33333333333334</v>
+        <v>14</v>
       </c>
       <c r="G69" t="n">
-        <v>141.6666666666667</v>
+        <v>126.5</v>
       </c>
       <c r="H69" t="n">
-        <v>142.08</v>
+        <v>126.935</v>
       </c>
       <c r="I69" t="n">
-        <v>132.355</v>
+        <v>107.815</v>
       </c>
       <c r="J69" t="n">
-        <v>56.35666666666667</v>
+        <v>42.695</v>
       </c>
       <c r="K69" t="n">
-        <v>125.4433333333333</v>
+        <v>95.13499999999999</v>
       </c>
       <c r="L69" t="n">
-        <v>13632.385</v>
+        <v>9194.15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3500,35 +3500,35 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F70" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G70" t="n">
-        <v>179</v>
+        <v>162.5</v>
       </c>
       <c r="H70" t="n">
-        <v>179.08</v>
+        <v>162.815</v>
       </c>
       <c r="I70" t="n">
-        <v>151.58</v>
+        <v>159.795</v>
       </c>
       <c r="J70" t="n">
-        <v>59.17</v>
+        <v>50.265</v>
       </c>
       <c r="K70" t="n">
-        <v>63.68</v>
+        <v>43.88500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>12669.44</v>
+        <v>9090.959999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3544,35 +3544,35 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>23.33333333333333</v>
+        <v>52</v>
       </c>
       <c r="F71" t="n">
-        <v>12.66666666666667</v>
+        <v>42</v>
       </c>
       <c r="G71" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H71" t="n">
-        <v>151.4666666666667</v>
+        <v>139.84</v>
       </c>
       <c r="I71" t="n">
-        <v>140.4033333333333</v>
+        <v>142.86</v>
       </c>
       <c r="J71" t="n">
-        <v>51.24</v>
+        <v>56.84</v>
       </c>
       <c r="K71" t="n">
-        <v>71.05</v>
+        <v>96.06</v>
       </c>
       <c r="L71" t="n">
-        <v>10382.12</v>
+        <v>10449.78</v>
       </c>
     </row>
     <row r="72">
@@ -3588,35 +3588,35 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>26.66666666666667</v>
+        <v>25</v>
       </c>
       <c r="F72" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" t="n">
-        <v>156.6666666666667</v>
+        <v>99</v>
       </c>
       <c r="H72" t="n">
-        <v>156.95</v>
+        <v>99.26499999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>151.14</v>
+        <v>88.36499999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>56.58333333333334</v>
+        <v>34.915</v>
       </c>
       <c r="K72" t="n">
-        <v>78.88333333333334</v>
+        <v>101.885</v>
       </c>
       <c r="L72" t="n">
-        <v>11564.81333333333</v>
+        <v>8469.165000000001</v>
       </c>
     </row>
     <row r="73">
@@ -3632,35 +3632,35 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>27</v>
+        <v>33.5</v>
       </c>
       <c r="F73" t="n">
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="G73" t="n">
-        <v>154.6666666666667</v>
+        <v>138</v>
       </c>
       <c r="H73" t="n">
-        <v>154.875</v>
+        <v>134.8925</v>
       </c>
       <c r="I73" t="n">
-        <v>141.8016666666667</v>
+        <v>131.1225</v>
       </c>
       <c r="J73" t="n">
-        <v>52.54999999999999</v>
+        <v>47.8525</v>
       </c>
       <c r="K73" t="n">
-        <v>83.79833333333333</v>
+        <v>53.84</v>
       </c>
       <c r="L73" t="n">
-        <v>10639.72</v>
+        <v>8906.385</v>
       </c>
     </row>
     <row r="74">
@@ -3676,35 +3676,35 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F74" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G74" t="n">
-        <v>93.75</v>
+        <v>138</v>
       </c>
       <c r="H74" t="n">
-        <v>91.9725</v>
+        <v>138.16</v>
       </c>
       <c r="I74" t="n">
-        <v>87.02000000000001</v>
+        <v>120.73</v>
       </c>
       <c r="J74" t="n">
-        <v>29.675</v>
+        <v>39.82</v>
       </c>
       <c r="K74" t="n">
-        <v>131.0175</v>
+        <v>47.29</v>
       </c>
       <c r="L74" t="n">
-        <v>5769.5625</v>
+        <v>8078.89</v>
       </c>
     </row>
     <row r="75">
@@ -3720,35 +3720,35 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G75" t="n">
-        <v>163</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>163.32</v>
+        <v>142.1883333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>144.2</v>
+        <v>130.2833333333334</v>
       </c>
       <c r="J75" t="n">
-        <v>47.02</v>
+        <v>42.64333333333333</v>
       </c>
       <c r="K75" t="n">
-        <v>56.96</v>
+        <v>63.81666666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>8113.97</v>
+        <v>7850.111666666666</v>
       </c>
     </row>
     <row r="76">
@@ -3764,35 +3764,35 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="H76" t="n">
-        <v>156.11</v>
+        <v>112.68</v>
       </c>
       <c r="I76" t="n">
-        <v>139.01</v>
+        <v>101.61</v>
       </c>
       <c r="J76" t="n">
-        <v>52.765</v>
+        <v>41.45</v>
       </c>
       <c r="K76" t="n">
-        <v>76.70999999999999</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>9928.105</v>
+        <v>10284.91</v>
       </c>
     </row>
     <row r="77">
@@ -3808,35 +3808,35 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>134.25</v>
+        <v>121</v>
       </c>
       <c r="H77" t="n">
-        <v>134.225</v>
+        <v>121.06</v>
       </c>
       <c r="I77" t="n">
-        <v>128.525</v>
+        <v>111</v>
       </c>
       <c r="J77" t="n">
-        <v>49.08</v>
+        <v>35.93</v>
       </c>
       <c r="K77" t="n">
-        <v>88.735</v>
+        <v>51.24</v>
       </c>
       <c r="L77" t="n">
-        <v>10232.24</v>
+        <v>6213.36</v>
       </c>
     </row>
     <row r="78">
@@ -3852,475 +3852,475 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>27</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>16</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>128.8333333333333</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>129.2525</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="I78" t="n">
-        <v>113.0691666666667</v>
+        <v>100.9466666666667</v>
       </c>
       <c r="J78" t="n">
-        <v>44.46083333333333</v>
+        <v>36.00333333333333</v>
       </c>
       <c r="K78" t="n">
-        <v>89.54749999999999</v>
+        <v>76.82333333333334</v>
       </c>
       <c r="L78" t="n">
-        <v>8896.995833333334</v>
+        <v>7018.72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>30.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>19.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>150.1666666666667</v>
+        <v>102</v>
       </c>
       <c r="H79" t="n">
-        <v>150.4066666666667</v>
+        <v>102.62</v>
       </c>
       <c r="I79" t="n">
-        <v>145.43</v>
+        <v>90.21000000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>50.14166666666667</v>
+        <v>42.11</v>
       </c>
       <c r="K79" t="n">
-        <v>61.63166666666667</v>
+        <v>184.2</v>
       </c>
       <c r="L79" t="n">
-        <v>9340.543333333333</v>
+        <v>11440.56</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F80" t="n">
-        <v>27.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>143.3333333333333</v>
+        <v>119</v>
       </c>
       <c r="H80" t="n">
-        <v>142.1866666666667</v>
+        <v>119.22</v>
       </c>
       <c r="I80" t="n">
-        <v>139.6166666666667</v>
+        <v>110.335</v>
       </c>
       <c r="J80" t="n">
-        <v>50.64333333333334</v>
+        <v>48.44</v>
       </c>
       <c r="K80" t="n">
-        <v>80.98999999999999</v>
+        <v>166.095</v>
       </c>
       <c r="L80" t="n">
-        <v>9617.110000000001</v>
+        <v>11844.96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F81" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>112.5</v>
+        <v>146</v>
       </c>
       <c r="H81" t="n">
-        <v>112.6775</v>
+        <v>146.55</v>
       </c>
       <c r="I81" t="n">
-        <v>102.7</v>
+        <v>114.02</v>
       </c>
       <c r="J81" t="n">
-        <v>40.7925</v>
+        <v>60.73</v>
       </c>
       <c r="K81" t="n">
-        <v>110.2975</v>
+        <v>105.68</v>
       </c>
       <c r="L81" t="n">
-        <v>9980.157500000001</v>
+        <v>15117.76</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>33.5</v>
+        <v>29</v>
       </c>
       <c r="F82" t="n">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="G82" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="H82" t="n">
-        <v>134.8925</v>
+        <v>112.2575</v>
       </c>
       <c r="I82" t="n">
-        <v>131.1225</v>
+        <v>96.75</v>
       </c>
       <c r="J82" t="n">
-        <v>47.8525</v>
+        <v>45.1425</v>
       </c>
       <c r="K82" t="n">
-        <v>53.84</v>
+        <v>135.605</v>
       </c>
       <c r="L82" t="n">
-        <v>8906.385</v>
+        <v>11089.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>134.25</v>
+        <v>157</v>
       </c>
       <c r="H83" t="n">
-        <v>134.5625</v>
+        <v>157.45</v>
       </c>
       <c r="I83" t="n">
-        <v>126.5975</v>
+        <v>128.11</v>
       </c>
       <c r="J83" t="n">
-        <v>51.2825</v>
+        <v>72.19499999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>109.705</v>
+        <v>160.84</v>
       </c>
       <c r="L83" t="n">
-        <v>12058.7875</v>
+        <v>19651.475</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>25.5</v>
+        <v>28</v>
       </c>
       <c r="F84" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>144.25</v>
+        <v>116</v>
       </c>
       <c r="H84" t="n">
-        <v>144.37</v>
+        <v>116.03</v>
       </c>
       <c r="I84" t="n">
-        <v>132.635</v>
+        <v>97.25</v>
       </c>
       <c r="J84" t="n">
-        <v>43.835</v>
+        <v>42.11</v>
       </c>
       <c r="K84" t="n">
-        <v>51.8425</v>
+        <v>90.12</v>
       </c>
       <c r="L84" t="n">
-        <v>7763.9375</v>
+        <v>8658.24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>27.33333333333334</v>
+        <v>30</v>
       </c>
       <c r="F85" t="n">
-        <v>16.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>148.8333333333333</v>
+        <v>148</v>
       </c>
       <c r="H85" t="n">
-        <v>149.2316666666667</v>
+        <v>148.23</v>
       </c>
       <c r="I85" t="n">
-        <v>136.8233333333334</v>
+        <v>139.18</v>
       </c>
       <c r="J85" t="n">
-        <v>43.72333333333333</v>
+        <v>57.92</v>
       </c>
       <c r="K85" t="n">
-        <v>51.14666666666666</v>
+        <v>104.72</v>
       </c>
       <c r="L85" t="n">
-        <v>7156.98</v>
+        <v>12618.77</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>11</v>
       </c>
       <c r="E86" t="n">
+        <v>30</v>
+      </c>
+      <c r="F86" t="n">
         <v>19</v>
       </c>
-      <c r="F86" t="n">
-        <v>8</v>
-      </c>
       <c r="G86" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H86" t="n">
-        <v>131.63</v>
+        <v>124.245</v>
       </c>
       <c r="I86" t="n">
-        <v>125.925</v>
+        <v>108.99</v>
       </c>
       <c r="J86" t="n">
-        <v>41.735</v>
+        <v>48.25</v>
       </c>
       <c r="K86" t="n">
-        <v>82.095</v>
+        <v>133.645</v>
       </c>
       <c r="L86" t="n">
-        <v>9414.895</v>
+        <v>12250.94</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="H87" t="n">
-        <v>119.385</v>
+        <v>153.93</v>
       </c>
       <c r="I87" t="n">
-        <v>106.64</v>
+        <v>140.85</v>
       </c>
       <c r="J87" t="n">
-        <v>41.355</v>
+        <v>61.1</v>
       </c>
       <c r="K87" t="n">
-        <v>102.785</v>
+        <v>117.26</v>
       </c>
       <c r="L87" t="n">
-        <v>8944.5</v>
+        <v>15011.63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>30.66666666666667</v>
+        <v>41</v>
       </c>
       <c r="F88" t="n">
-        <v>22.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="G88" t="n">
-        <v>116.6666666666667</v>
+        <v>163.5</v>
       </c>
       <c r="H88" t="n">
-        <v>116.8166666666667</v>
+        <v>141.69</v>
       </c>
       <c r="I88" t="n">
-        <v>100.9466666666667</v>
+        <v>156.28</v>
       </c>
       <c r="J88" t="n">
-        <v>36.00333333333333</v>
+        <v>65.61500000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>76.82333333333334</v>
+        <v>124.735</v>
       </c>
       <c r="L88" t="n">
-        <v>7018.72</v>
+        <v>15814.995</v>
       </c>
     </row>
     <row r="89">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4349,22 +4349,22 @@
         <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>122.5</v>
+        <v>62</v>
       </c>
       <c r="H89" t="n">
-        <v>122.74</v>
+        <v>62.38</v>
       </c>
       <c r="I89" t="n">
-        <v>113.685</v>
+        <v>52.32</v>
       </c>
       <c r="J89" t="n">
-        <v>54.49</v>
+        <v>23.96</v>
       </c>
       <c r="K89" t="n">
-        <v>171.82</v>
+        <v>142.12</v>
       </c>
       <c r="L89" t="n">
-        <v>15374.02</v>
+        <v>6040.1</v>
       </c>
     </row>
     <row r="90">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -4393,22 +4393,22 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H90" t="n">
-        <v>119.3025</v>
+        <v>148.225</v>
       </c>
       <c r="I90" t="n">
-        <v>110.1675</v>
+        <v>135.485</v>
       </c>
       <c r="J90" t="n">
-        <v>48.02</v>
+        <v>57.32</v>
       </c>
       <c r="K90" t="n">
-        <v>164.1225</v>
+        <v>114.26</v>
       </c>
       <c r="L90" t="n">
-        <v>11746.16</v>
+        <v>13788.32</v>
       </c>
     </row>
     <row r="91">
@@ -4424,35 +4424,35 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
+        <v>119</v>
+      </c>
+      <c r="H91" t="n">
         <v>119.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>120.055</v>
-      </c>
       <c r="I91" t="n">
-        <v>101.44</v>
+        <v>112.12</v>
       </c>
       <c r="J91" t="n">
-        <v>49.28</v>
+        <v>45.95</v>
       </c>
       <c r="K91" t="n">
-        <v>131.915</v>
+        <v>120.9933333333333</v>
       </c>
       <c r="L91" t="n">
-        <v>12645.93</v>
+        <v>11418.41</v>
       </c>
     </row>
     <row r="92">
@@ -4468,35 +4468,35 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>30.16666666666666</v>
+        <v>30</v>
       </c>
       <c r="F92" t="n">
-        <v>20.16666666666666</v>
+        <v>20</v>
       </c>
       <c r="G92" t="n">
-        <v>112.7083333333333</v>
+        <v>138.5</v>
       </c>
       <c r="H92" t="n">
-        <v>113.0829166666667</v>
+        <v>138.835</v>
       </c>
       <c r="I92" t="n">
-        <v>100.75875</v>
+        <v>119.725</v>
       </c>
       <c r="J92" t="n">
-        <v>45.04708333333333</v>
+        <v>55.27</v>
       </c>
       <c r="K92" t="n">
-        <v>143.715</v>
+        <v>116.775</v>
       </c>
       <c r="L92" t="n">
-        <v>10998.57041666667</v>
+        <v>13358.89</v>
       </c>
     </row>
     <row r="93">
@@ -4512,35 +4512,35 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F93" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="H93" t="n">
-        <v>138.42</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="I93" t="n">
-        <v>113.52</v>
+        <v>85.845</v>
       </c>
       <c r="J93" t="n">
-        <v>57.8625</v>
+        <v>35.47</v>
       </c>
       <c r="K93" t="n">
-        <v>124.925</v>
+        <v>121.675</v>
       </c>
       <c r="L93" t="n">
-        <v>14511.0125</v>
+        <v>8281.994999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4556,35 +4556,35 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H94" t="n">
-        <v>116.03</v>
+        <v>96.92</v>
       </c>
       <c r="I94" t="n">
-        <v>97.25</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="J94" t="n">
-        <v>42.11</v>
+        <v>32.99</v>
       </c>
       <c r="K94" t="n">
-        <v>90.12</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="L94" t="n">
-        <v>8658.24</v>
+        <v>8301.34</v>
       </c>
     </row>
     <row r="95">
@@ -4600,519 +4600,35 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>149.5</v>
+        <v>59.5</v>
       </c>
       <c r="H95" t="n">
-        <v>149.735</v>
+        <v>59.355</v>
       </c>
       <c r="I95" t="n">
-        <v>144.375</v>
+        <v>53.31999999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>62.58</v>
+        <v>21.765</v>
       </c>
       <c r="K95" t="n">
-        <v>133.075</v>
+        <v>116.425</v>
       </c>
       <c r="L95" t="n">
-        <v>15829.625</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>30</v>
-      </c>
-      <c r="F96" t="n">
-        <v>21</v>
-      </c>
-      <c r="G96" t="n">
-        <v>111.75</v>
-      </c>
-      <c r="H96" t="n">
-        <v>111.8375</v>
-      </c>
-      <c r="I96" t="n">
-        <v>95.745</v>
-      </c>
-      <c r="J96" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="K96" t="n">
-        <v>155.95</v>
-      </c>
-      <c r="L96" t="n">
-        <v>11979.9025</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>10</v>
-      </c>
-      <c r="E97" t="n">
-        <v>30</v>
-      </c>
-      <c r="F97" t="n">
-        <v>20</v>
-      </c>
-      <c r="G97" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="H97" t="n">
-        <v>135.82</v>
-      </c>
-      <c r="I97" t="n">
-        <v>127.9425</v>
-      </c>
-      <c r="J97" t="n">
-        <v>54.5425</v>
-      </c>
-      <c r="K97" t="n">
-        <v>124.7325</v>
-      </c>
-      <c r="L97" t="n">
-        <v>13401.5325</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>offset_PPI_14</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="E98" t="n">
-        <v>30</v>
-      </c>
-      <c r="F98" t="n">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="G98" t="n">
-        <v>133</v>
-      </c>
-      <c r="H98" t="n">
-        <v>133.36</v>
-      </c>
-      <c r="I98" t="n">
-        <v>116.1466666666667</v>
-      </c>
-      <c r="J98" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="K98" t="n">
-        <v>125.9066666666667</v>
-      </c>
-      <c r="L98" t="n">
-        <v>13062.84333333333</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>offset_PPI_16</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>10</v>
-      </c>
-      <c r="E99" t="n">
-        <v>41</v>
-      </c>
-      <c r="F99" t="n">
-        <v>31</v>
-      </c>
-      <c r="G99" t="n">
-        <v>166.75</v>
-      </c>
-      <c r="H99" t="n">
-        <v>144.96</v>
-      </c>
-      <c r="I99" t="n">
-        <v>159.045</v>
-      </c>
-      <c r="J99" t="n">
-        <v>67.12</v>
-      </c>
-      <c r="K99" t="n">
-        <v>126.3325</v>
-      </c>
-      <c r="L99" t="n">
-        <v>16125.215</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>offset_PPI_18</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>10</v>
-      </c>
-      <c r="E100" t="n">
-        <v>31</v>
-      </c>
-      <c r="F100" t="n">
-        <v>21</v>
-      </c>
-      <c r="G100" t="n">
-        <v>101</v>
-      </c>
-      <c r="H100" t="n">
-        <v>101.11</v>
-      </c>
-      <c r="I100" t="n">
-        <v>83.34</v>
-      </c>
-      <c r="J100" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="K100" t="n">
-        <v>160.06</v>
-      </c>
-      <c r="L100" t="n">
-        <v>11963.745</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>offset_PPI_20</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="E101" t="n">
-        <v>30</v>
-      </c>
-      <c r="F101" t="n">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="G101" t="n">
-        <v>124.6666666666667</v>
-      </c>
-      <c r="H101" t="n">
-        <v>125.1433333333333</v>
-      </c>
-      <c r="I101" t="n">
-        <v>110.1083333333333</v>
-      </c>
-      <c r="J101" t="n">
-        <v>51.21833333333333</v>
-      </c>
-      <c r="K101" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="L101" t="n">
-        <v>13327.58333333333</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>offset_PPI_4</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>10</v>
-      </c>
-      <c r="E102" t="n">
-        <v>30</v>
-      </c>
-      <c r="F102" t="n">
-        <v>20</v>
-      </c>
-      <c r="G102" t="n">
-        <v>118.3333333333333</v>
-      </c>
-      <c r="H102" t="n">
-        <v>118.6616666666667</v>
-      </c>
-      <c r="I102" t="n">
-        <v>110.0533333333333</v>
-      </c>
-      <c r="J102" t="n">
-        <v>46.065</v>
-      </c>
-      <c r="K102" t="n">
-        <v>125.9083333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>11452.5</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>offset_PPI_50</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>30</v>
-      </c>
-      <c r="F103" t="n">
-        <v>20</v>
-      </c>
-      <c r="G103" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="H103" t="n">
-        <v>138.835</v>
-      </c>
-      <c r="I103" t="n">
-        <v>119.725</v>
-      </c>
-      <c r="J103" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="K103" t="n">
-        <v>116.775</v>
-      </c>
-      <c r="L103" t="n">
-        <v>13358.89</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>offset_PPI_6</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>30</v>
-      </c>
-      <c r="F104" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>96</v>
-      </c>
-      <c r="H104" t="n">
-        <v>96.16249999999999</v>
-      </c>
-      <c r="I104" t="n">
-        <v>87.78</v>
-      </c>
-      <c r="J104" t="n">
-        <v>36.1375</v>
-      </c>
-      <c r="K104" t="n">
-        <v>135.3675</v>
-      </c>
-      <c r="L104" t="n">
-        <v>8593.555</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>offset_PPI_8</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="E105" t="n">
-        <v>30</v>
-      </c>
-      <c r="F105" t="n">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="G105" t="n">
-        <v>95.33333333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>95.91000000000001</v>
-      </c>
-      <c r="I105" t="n">
-        <v>81.37666666666668</v>
-      </c>
-      <c r="J105" t="n">
-        <v>34.18333333333334</v>
-      </c>
-      <c r="K105" t="n">
-        <v>121.2433333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>8232.433333333332</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>9</v>
-      </c>
-      <c r="E106" t="n">
-        <v>27</v>
-      </c>
-      <c r="F106" t="n">
-        <v>18</v>
-      </c>
-      <c r="G106" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="H106" t="n">
-        <v>71.5975</v>
-      </c>
-      <c r="I106" t="n">
-        <v>65.72999999999999</v>
-      </c>
-      <c r="J106" t="n">
-        <v>25.8225</v>
-      </c>
-      <c r="K106" t="n">
-        <v>117.6975</v>
-      </c>
-      <c r="L106" t="n">
-        <v>6068.747499999999</v>
+        <v>5565.235</v>
       </c>
     </row>
   </sheetData>
